--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -329,9 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,16 +343,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,6 +374,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -374,30 +389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,16 +420,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,29 +472,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -482,187 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,75 +676,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -773,6 +710,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,31 +793,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,97 +832,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="18270" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>ID</t>
   </si>
@@ -75,22 +75,34 @@
     <t>Role</t>
   </si>
   <si>
-    <t>10,15</t>
+    <t>-0.15,0.6</t>
+  </si>
+  <si>
+    <t>-0.12,-0,3</t>
+  </si>
+  <si>
+    <t>0.32,-0.28</t>
+  </si>
+  <si>
+    <t>Monster_001</t>
+  </si>
+  <si>
+    <t>0,0.25</t>
   </si>
   <si>
     <t>10,10</t>
   </si>
   <si>
-    <t>Monster_001</t>
-  </si>
-  <si>
-    <t>0,0.25</t>
-  </si>
-  <si>
     <t>Monster_002</t>
   </si>
   <si>
-    <t>0,0.35</t>
+    <t>0.09,0.3</t>
+  </si>
+  <si>
+    <t>0.07,-0.37</t>
+  </si>
+  <si>
+    <t>-0.13,-0.5</t>
   </si>
   <si>
     <t>Monster_003</t>
@@ -307,6 +319,15 @@
   </si>
   <si>
     <t>0.11,1.5</t>
+  </si>
+  <si>
+    <t>Effect_001</t>
+  </si>
+  <si>
+    <t>-1.61,-0.1</t>
+  </si>
+  <si>
+    <t>Effect_002</t>
   </si>
 </sst>
 </file>
@@ -315,8 +336,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -337,23 +358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,9 +375,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,21 +397,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,14 +443,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -428,7 +473,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,38 +481,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,187 +503,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +694,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,8 +735,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,50 +786,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,19 +814,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,112 +835,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,6 +949,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1365,20 +1389,20 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1386,7 +1410,7 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1395,16 +1419,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -1415,7 +1439,7 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1424,19 +1448,19 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1444,7 +1468,7 @@
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1453,16 +1477,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1473,7 +1497,7 @@
         <v>20004</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1482,16 +1506,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -1502,7 +1526,7 @@
         <v>20005</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1511,16 +1535,16 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -1531,7 +1555,7 @@
         <v>20006</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1540,16 +1564,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1560,7 +1584,7 @@
         <v>20007</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1569,16 +1593,16 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -1589,7 +1613,7 @@
         <v>20008</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1598,16 +1622,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -1618,7 +1642,7 @@
         <v>20009</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1627,16 +1651,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1647,7 +1671,7 @@
         <v>20010</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1656,16 +1680,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1676,7 +1700,7 @@
         <v>20011</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1685,16 +1709,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -1705,7 +1729,7 @@
         <v>20012</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1714,16 +1738,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -1734,7 +1758,7 @@
         <v>20013</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1743,16 +1767,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1763,7 +1787,7 @@
         <v>20014</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1772,16 +1796,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -1792,7 +1816,7 @@
         <v>20015</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1801,16 +1825,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -1821,7 +1845,7 @@
         <v>20016</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1830,16 +1854,16 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -1850,7 +1874,7 @@
         <v>20017</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1859,16 +1883,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -1879,7 +1903,7 @@
         <v>20018</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1888,16 +1912,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -1908,7 +1932,7 @@
         <v>20019</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1917,16 +1941,16 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -1937,7 +1961,7 @@
         <v>20020</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1946,16 +1970,16 @@
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -1966,7 +1990,7 @@
         <v>20021</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1975,16 +1999,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -1995,7 +2019,7 @@
         <v>20022</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2004,16 +2028,16 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -2024,7 +2048,7 @@
         <v>20023</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2033,16 +2057,16 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -2053,7 +2077,7 @@
         <v>20024</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2062,16 +2086,16 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -2082,7 +2106,7 @@
         <v>20025</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2091,16 +2115,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -2111,7 +2135,7 @@
         <v>20026</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2120,16 +2144,16 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -2140,7 +2164,7 @@
         <v>20027</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2149,16 +2173,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -2169,7 +2193,7 @@
         <v>20028</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2178,16 +2202,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2198,7 +2222,7 @@
         <v>20029</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2207,16 +2231,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -2227,7 +2251,7 @@
         <v>20030</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2236,16 +2260,16 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -2256,7 +2280,7 @@
         <v>20031</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2265,16 +2289,16 @@
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -2285,7 +2309,7 @@
         <v>20032</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2294,16 +2318,16 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -2314,7 +2338,7 @@
         <v>20033</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2323,16 +2347,16 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -2343,7 +2367,7 @@
         <v>20034</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2352,16 +2376,16 @@
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -2372,7 +2396,7 @@
         <v>20035</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2381,16 +2405,16 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I38">
         <v>4</v>
@@ -2401,7 +2425,7 @@
         <v>20036</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2410,16 +2434,16 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -2430,7 +2454,7 @@
         <v>20037</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2439,16 +2463,16 @@
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -2459,7 +2483,7 @@
         <v>20038</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2468,16 +2492,16 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -2488,7 +2512,7 @@
         <v>20039</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2497,16 +2521,16 @@
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I42">
         <v>4</v>
@@ -2517,7 +2541,7 @@
         <v>20040</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2526,19 +2550,77 @@
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I43">
         <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>30001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>30002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,35 +15,216 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zsbin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+资源名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+缩放</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+攻击生效帧</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+血条偏移量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+血条宽度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+判定偏移点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+发出攻击偏移点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最终立足点y轴偏移</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>资源名</t>
-  </si>
-  <si>
-    <t>缩放</t>
-  </si>
-  <si>
-    <t>攻击生效帧</t>
-  </si>
-  <si>
-    <t>血条偏移量</t>
-  </si>
-  <si>
-    <t>血条宽度</t>
-  </si>
-  <si>
-    <t>判定偏移点</t>
-  </si>
-  <si>
-    <t>发出攻击偏移点</t>
-  </si>
-  <si>
-    <t>最终立足点y轴偏移</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>id</t>
   </si>
@@ -75,22 +256,34 @@
     <t>Role</t>
   </si>
   <si>
-    <t>10,15</t>
+    <t>-0.15,0.6</t>
+  </si>
+  <si>
+    <t>-0.12,-0,3</t>
+  </si>
+  <si>
+    <t>0.32,-0.28</t>
+  </si>
+  <si>
+    <t>Monster_001</t>
+  </si>
+  <si>
+    <t>0,0.25</t>
   </si>
   <si>
     <t>10,10</t>
   </si>
   <si>
-    <t>Monster_001</t>
-  </si>
-  <si>
-    <t>0,0.25</t>
-  </si>
-  <si>
     <t>Monster_002</t>
   </si>
   <si>
-    <t>0,0.35</t>
+    <t>0.09,0.3</t>
+  </si>
+  <si>
+    <t>0.07,-0.37</t>
+  </si>
+  <si>
+    <t>-0.13,-0.5</t>
   </si>
   <si>
     <t>Monster_003</t>
@@ -307,6 +500,15 @@
   </si>
   <si>
     <t>0.11,1.5</t>
+  </si>
+  <si>
+    <t>Effect_001</t>
+  </si>
+  <si>
+    <t>-1.61,-0.1</t>
+  </si>
+  <si>
+    <t>Effect_002</t>
   </si>
 </sst>
 </file>
@@ -314,10 +516,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -330,14 +532,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,23 +590,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -382,46 +621,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,8 +653,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,30 +674,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -482,187 +684,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,12 +878,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -698,15 +924,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,23 +961,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,8 +970,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +983,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,19 +995,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,112 +1016,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,6 +1130,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F43"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1324,40 +1529,40 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+      <c r="I2">
+        <v>-0.69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1365,17 +1570,17 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -1383,10 +1588,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1395,27 +1600,27 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1424,16 +1629,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1441,10 +1646,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1453,16 +1658,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1470,10 +1675,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1482,16 +1687,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -1499,10 +1704,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>20005</v>
+        <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1511,16 +1716,16 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -1528,10 +1733,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1540,16 +1745,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1557,10 +1762,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>20007</v>
+        <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1575,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -1586,10 +1791,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>20008</v>
+        <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1598,16 +1803,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -1615,10 +1820,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>20009</v>
+        <v>20010</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1627,16 +1832,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1644,10 +1849,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>20010</v>
+        <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1656,16 +1861,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1673,10 +1878,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>20011</v>
+        <v>20012</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1685,16 +1890,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -1702,10 +1907,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>20012</v>
+        <v>20013</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1714,16 +1919,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -1731,10 +1936,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>20013</v>
+        <v>20014</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1743,16 +1948,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1760,10 +1965,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>20014</v>
+        <v>20015</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1772,16 +1977,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -1789,10 +1994,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>20015</v>
+        <v>20016</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1801,16 +2006,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -1818,10 +2023,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>20016</v>
+        <v>20017</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1830,16 +2035,16 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -1847,10 +2052,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>20017</v>
+        <v>20018</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1859,16 +2064,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -1876,10 +2081,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>20018</v>
+        <v>20019</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1888,16 +2093,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -1905,10 +2110,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>20019</v>
+        <v>20020</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1917,16 +2122,16 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -1934,10 +2139,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>20020</v>
+        <v>20021</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1946,16 +2151,16 @@
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -1963,10 +2168,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>20021</v>
+        <v>20022</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1975,16 +2180,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -1992,10 +2197,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>20022</v>
+        <v>20023</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2004,16 +2209,16 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -2021,10 +2226,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>20023</v>
+        <v>20024</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2033,16 +2238,16 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -2050,10 +2255,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>20024</v>
+        <v>20025</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2062,16 +2267,16 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -2079,10 +2284,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>20025</v>
+        <v>20026</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2091,16 +2296,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>4</v>
@@ -2108,10 +2313,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>20026</v>
+        <v>20027</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2120,16 +2325,16 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -2137,10 +2342,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>20027</v>
+        <v>20028</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2149,16 +2354,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -2166,10 +2371,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>20028</v>
+        <v>20029</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2178,16 +2383,16 @@
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2195,10 +2400,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>20029</v>
+        <v>20030</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2207,16 +2412,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <v>4</v>
@@ -2224,10 +2429,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>20030</v>
+        <v>20031</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2236,16 +2441,16 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -2253,10 +2458,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>20031</v>
+        <v>20032</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2265,16 +2470,16 @@
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -2282,10 +2487,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>20032</v>
+        <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2294,16 +2499,16 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -2311,10 +2516,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>20033</v>
+        <v>20034</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2323,16 +2528,16 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>4</v>
@@ -2340,10 +2545,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>20034</v>
+        <v>20035</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2352,16 +2557,16 @@
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -2369,10 +2574,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>20035</v>
+        <v>20036</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2381,16 +2586,16 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I38">
         <v>4</v>
@@ -2398,10 +2603,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>20036</v>
+        <v>20037</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2410,16 +2615,16 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -2427,10 +2632,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>20037</v>
+        <v>20038</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2439,16 +2644,16 @@
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -2456,10 +2661,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>20038</v>
+        <v>20039</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2468,16 +2673,16 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -2485,10 +2690,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>20039</v>
+        <v>20040</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2497,16 +2702,16 @@
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I42">
         <v>4</v>
@@ -2514,37 +2719,67 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>20040</v>
+        <v>30001</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>30002</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -516,11 +516,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -532,7 +532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +547,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,36 +555,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,7 +569,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,9 +636,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,14 +653,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -639,7 +661,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,28 +674,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -684,25 +684,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,157 +774,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,26 +889,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,6 +923,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -969,6 +958,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -983,10 +983,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,133 +995,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>id</t>
   </si>
@@ -268,10 +268,13 @@
     <t>Monster_001</t>
   </si>
   <si>
-    <t>0,0.25</t>
-  </si>
-  <si>
-    <t>10,10</t>
+    <t>-0.27,0.34</t>
+  </si>
+  <si>
+    <t>-0.25,-0.26</t>
+  </si>
+  <si>
+    <t>0,0</t>
   </si>
   <si>
     <t>Monster_002</t>
@@ -289,91 +292,142 @@
     <t>Monster_003</t>
   </si>
   <si>
-    <t>0,0.6</t>
+    <t>-0.12,0.56</t>
+  </si>
+  <si>
+    <t>-0.14,-0.13</t>
   </si>
   <si>
     <t>Monster_004</t>
   </si>
   <si>
-    <t>-0.25,0.75</t>
+    <t>-0.22,0.52</t>
+  </si>
+  <si>
+    <t>-0.2,-0.16</t>
   </si>
   <si>
     <t>Monster_005</t>
   </si>
   <si>
-    <t>0,0.3</t>
+    <t>-0.18,0.28</t>
+  </si>
+  <si>
+    <t>-0.21,-0.51</t>
   </si>
   <si>
     <t>Monster_006</t>
   </si>
   <si>
-    <t>-1.5,0.35</t>
+    <t>-0.26,0.4</t>
+  </si>
+  <si>
+    <t>-0.33,-0.22</t>
   </si>
   <si>
     <t>Monster_007</t>
   </si>
   <si>
+    <t>-0.33,-0.26</t>
+  </si>
+  <si>
     <t>Monster_008</t>
   </si>
   <si>
+    <t>-0.14,0.1</t>
+  </si>
+  <si>
+    <t>-0.14,-0.47</t>
+  </si>
+  <si>
+    <t>Monster_009</t>
+  </si>
+  <si>
+    <t>-0.06,0.4</t>
+  </si>
+  <si>
+    <t>-0.16,-0.35</t>
+  </si>
+  <si>
+    <t>Monster_010</t>
+  </si>
+  <si>
+    <t>-0.13,0.03</t>
+  </si>
+  <si>
+    <t>-0.13,-0.46</t>
+  </si>
+  <si>
+    <t>-0.22,-0.34</t>
+  </si>
+  <si>
+    <t>Monster_011</t>
+  </si>
+  <si>
+    <t>-0.1,0.08</t>
+  </si>
+  <si>
+    <t>-0.18,0.44</t>
+  </si>
+  <si>
+    <t>Monster_012</t>
+  </si>
+  <si>
     <t>-0.15,0</t>
   </si>
   <si>
-    <t>Monster_009</t>
-  </si>
-  <si>
-    <t>0,0.4</t>
-  </si>
-  <si>
-    <t>Monster_010</t>
-  </si>
-  <si>
-    <t>-0.1,0</t>
-  </si>
-  <si>
-    <t>Monster_011</t>
-  </si>
-  <si>
-    <t>Monster_012</t>
-  </si>
-  <si>
-    <t>-0.08,0</t>
+    <t>-0.15,-0.47</t>
   </si>
   <si>
     <t>Monster_013</t>
   </si>
   <si>
-    <t>0.1,0.25</t>
+    <t>0.08,0.3</t>
+  </si>
+  <si>
+    <t>0.08,-0.36</t>
+  </si>
+  <si>
+    <t>-0.086,-0.52</t>
   </si>
   <si>
     <t>Monster_014</t>
   </si>
   <si>
-    <t>0.1,0.15</t>
+    <t>-0.143,-0.475</t>
   </si>
   <si>
     <t>Monster_015</t>
   </si>
   <si>
-    <t>0.19,0</t>
+    <t>0.17,0</t>
+  </si>
+  <si>
+    <t>0.16,-0.48</t>
   </si>
   <si>
     <t>Monster_016</t>
   </si>
   <si>
-    <t>0,0</t>
-  </si>
-  <si>
     <t>Monster_017</t>
   </si>
   <si>
-    <t>0.22,0.5</t>
+    <t>0.2,0.44</t>
+  </si>
+  <si>
+    <t>0.24,-0.14</t>
+  </si>
+  <si>
+    <t>1.01,0.12</t>
   </si>
   <si>
     <t>Monster_018</t>
   </si>
   <si>
-    <t>-0.22,0.5</t>
+    <t>-0.19,0.52</t>
+  </si>
+  <si>
+    <t>-0.19,-0.16</t>
   </si>
   <si>
     <t>Monster_019</t>
@@ -385,121 +439,166 @@
     <t>Monster_020</t>
   </si>
   <si>
-    <t>-0.25,0.85</t>
+    <t>-0.14,0.95</t>
+  </si>
+  <si>
+    <t>-0.18,0.08</t>
   </si>
   <si>
     <t>Monster_021</t>
   </si>
   <si>
-    <t>-0.11,0.25</t>
+    <t>-0.14,0.2</t>
+  </si>
+  <si>
+    <t>-0.15,-0.36</t>
   </si>
   <si>
     <t>Monster_022</t>
   </si>
   <si>
-    <t>-0.22,0.25</t>
+    <t>-0.21,0.3</t>
+  </si>
+  <si>
+    <t>-0.26,-0.56</t>
+  </si>
+  <si>
+    <t>-0.61,-0.32</t>
   </si>
   <si>
     <t>Monster_023</t>
   </si>
   <si>
-    <t>-0.22,0</t>
+    <t>-0.22，0</t>
+  </si>
+  <si>
+    <t>-0.27,-0.64</t>
   </si>
   <si>
     <t>Monster_024</t>
   </si>
   <si>
-    <t>0.12,0.2</t>
+    <t>-0.12,0.3</t>
+  </si>
+  <si>
+    <t>-0.15,-0.41</t>
   </si>
   <si>
     <t>Monster_025</t>
   </si>
   <si>
-    <t>0.1,-0.1</t>
+    <t>-0.14,0</t>
+  </si>
+  <si>
+    <t>-0.18,-0.5</t>
   </si>
   <si>
     <t>Monster_026</t>
   </si>
   <si>
-    <t>0.37,-0.1</t>
-  </si>
-  <si>
     <t>Monster_027</t>
   </si>
   <si>
     <t>Monster_028</t>
   </si>
   <si>
-    <t>-0.05,0.45</t>
+    <t>-0.1,0.55</t>
+  </si>
+  <si>
+    <t>-0.17,-0.31</t>
   </si>
   <si>
     <t>Monster_029</t>
   </si>
   <si>
-    <t>-0.13,0.4</t>
+    <t>-0.15,0.44</t>
+  </si>
+  <si>
+    <t>-0.18,-0.38</t>
   </si>
   <si>
     <t>Monster_030</t>
   </si>
   <si>
-    <t>-0.11,0.7</t>
+    <t>-0.1,0.65</t>
+  </si>
+  <si>
+    <t>-0.16,-0.37</t>
   </si>
   <si>
     <t>Monster_031</t>
   </si>
   <si>
-    <t>0.13,0.6</t>
+    <t>-0.21,0.47</t>
+  </si>
+  <si>
+    <t>-0.26,-0.35</t>
+  </si>
+  <si>
+    <t>-1.06,-0.54</t>
   </si>
   <si>
     <t>Monster_032</t>
   </si>
   <si>
-    <t>0,0.85</t>
+    <t>0,1.4</t>
   </si>
   <si>
     <t>Monster_033</t>
   </si>
   <si>
-    <t>0.18,0.7</t>
+    <t>-0.2,1</t>
+  </si>
+  <si>
+    <t>-0.23,-0.12</t>
   </si>
   <si>
     <t>Monster_034</t>
   </si>
   <si>
-    <t>-0.1,-0.07</t>
+    <t>-0.14,-0.51</t>
   </si>
   <si>
     <t>Monster_035</t>
   </si>
   <si>
-    <t>-0.07,4.5</t>
+    <t>-0.05,0.5</t>
+  </si>
+  <si>
+    <t>-0.16,-0.41</t>
   </si>
   <si>
     <t>Monster_036</t>
   </si>
   <si>
-    <t>-0.1,-0.1</t>
-  </si>
-  <si>
     <t>Monster_037</t>
   </si>
   <si>
     <t>Monster_038</t>
   </si>
   <si>
-    <t>-0.22,0.15</t>
+    <t>-0.19,0.17</t>
+  </si>
+  <si>
+    <t>-0.34,-0.31</t>
   </si>
   <si>
     <t>Monster_039</t>
   </si>
   <si>
-    <t>0.26,1</t>
+    <t>-0.07,2</t>
+  </si>
+  <si>
+    <t>-0.32,0.46</t>
   </si>
   <si>
     <t>Monster_040</t>
   </si>
   <si>
-    <t>0.11,1.5</t>
+    <t>-0.45,2.38</t>
+  </si>
+  <si>
+    <t>-0.35,0.62</t>
   </si>
   <si>
     <t>Effect_001</t>
@@ -517,10 +616,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -528,6 +627,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,7 +676,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,99 +696,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -668,12 +713,66 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -684,31 +783,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +927,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,127 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,60 +974,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -950,8 +995,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,6 +1050,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -983,10 +1082,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,133 +1094,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,6 +1232,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1587,8 @@
   <sheetPr/>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1570,20 +1672,20 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1591,7 +1693,7 @@
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1600,19 +1702,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>-0.65</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1620,7 +1722,7 @@
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1628,20 +1730,20 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1649,7 +1751,7 @@
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1657,20 +1759,20 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1678,7 +1780,7 @@
         <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1686,20 +1788,20 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1707,7 +1809,7 @@
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1715,20 +1817,20 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1736,7 +1838,7 @@
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1744,20 +1846,20 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1765,7 +1867,7 @@
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1773,20 +1875,20 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1794,7 +1896,7 @@
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1802,20 +1904,20 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1823,7 +1925,7 @@
         <v>20010</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1831,20 +1933,20 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1852,7 +1954,7 @@
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1860,20 +1962,20 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>34</v>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
-        <v>15</v>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1881,7 +1983,7 @@
         <v>20012</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1889,20 +1991,20 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>15</v>
+      <c r="G14" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1910,7 +2012,7 @@
         <v>20013</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1919,19 +2021,19 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1939,7 +2041,7 @@
         <v>20014</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1948,19 +2050,19 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1968,7 +2070,7 @@
         <v>20015</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1977,19 +2079,19 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1997,7 +2099,7 @@
         <v>20016</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2006,19 +2108,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2026,7 +2128,7 @@
         <v>20017</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2035,19 +2137,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2055,7 +2157,7 @@
         <v>20018</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2063,20 +2165,20 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>49</v>
+      <c r="E20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>15</v>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2084,7 +2186,7 @@
         <v>20019</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2092,20 +2194,20 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>15</v>
+      <c r="G21" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2113,7 +2215,7 @@
         <v>20020</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2121,20 +2223,20 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
-        <v>15</v>
+      <c r="G22" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2142,7 +2244,7 @@
         <v>20021</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2150,20 +2252,20 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>15</v>
+      <c r="G23" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2171,7 +2273,7 @@
         <v>20022</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2179,20 +2281,20 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>57</v>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
+      <c r="G24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2200,7 +2302,7 @@
         <v>20023</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2208,20 +2310,20 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>59</v>
+      <c r="E25" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
-        <v>15</v>
+      <c r="G25" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2229,7 +2331,7 @@
         <v>20024</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2237,20 +2339,20 @@
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>61</v>
+      <c r="E26" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
-        <v>15</v>
+      <c r="G26" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2258,7 +2360,7 @@
         <v>20025</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2266,20 +2368,20 @@
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>63</v>
+      <c r="E27" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>15</v>
+      <c r="G27" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2287,7 +2389,7 @@
         <v>20026</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2295,20 +2397,20 @@
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
+      <c r="E28" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>15</v>
+      <c r="G28" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2316,7 +2418,7 @@
         <v>20027</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2324,20 +2426,20 @@
       <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
+      <c r="E29" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
-        <v>15</v>
+      <c r="G29" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2345,7 +2447,7 @@
         <v>20028</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2353,20 +2455,20 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>68</v>
+      <c r="E30" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
-        <v>15</v>
+      <c r="G30" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2374,7 +2476,7 @@
         <v>20029</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2382,20 +2484,20 @@
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>70</v>
+      <c r="E31" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" t="s">
-        <v>15</v>
+      <c r="G31" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2403,7 +2505,7 @@
         <v>20030</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2411,20 +2513,20 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>72</v>
+      <c r="E32" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
-        <v>15</v>
+      <c r="G32" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2432,7 +2534,7 @@
         <v>20031</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2440,20 +2542,20 @@
       <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>74</v>
+      <c r="E33" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
+      <c r="G33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2461,7 +2563,7 @@
         <v>20032</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2470,19 +2572,19 @@
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2490,7 +2592,7 @@
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2498,20 +2600,20 @@
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
+      <c r="E35" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
-        <v>15</v>
+      <c r="G35" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2519,7 +2621,7 @@
         <v>20034</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2527,20 +2629,20 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>80</v>
+      <c r="E36" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
-        <v>15</v>
+      <c r="G36" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2548,7 +2650,7 @@
         <v>20035</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2556,20 +2658,20 @@
       <c r="D37">
         <v>3</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>82</v>
+      <c r="E37" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
-        <v>15</v>
+      <c r="G37" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2577,7 +2679,7 @@
         <v>20036</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2585,20 +2687,20 @@
       <c r="D38">
         <v>3</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>84</v>
+      <c r="E38" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
-        <v>15</v>
+      <c r="G38" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2606,7 +2708,7 @@
         <v>20037</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2614,20 +2716,20 @@
       <c r="D39">
         <v>3</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>84</v>
+      <c r="E39" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
-        <v>15</v>
+      <c r="G39" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2635,7 +2737,7 @@
         <v>20038</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2643,20 +2745,20 @@
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>87</v>
+      <c r="E40" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
-        <v>15</v>
+      <c r="G40" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2664,7 +2766,7 @@
         <v>20039</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2672,20 +2774,20 @@
       <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>89</v>
+      <c r="E41" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
-        <v>15</v>
+      <c r="G41" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2693,7 +2795,7 @@
         <v>20040</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2701,20 +2803,20 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>91</v>
+      <c r="E42" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
-        <v>15</v>
+      <c r="G42" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2722,7 +2824,7 @@
         <v>30001</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2737,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2751,7 +2853,7 @@
         <v>30002</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2766,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I44">
         <v>0</v>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>Monster_023</t>
   </si>
   <si>
-    <t>-0.22，0</t>
+    <t>-0.22,0</t>
   </si>
   <si>
     <t>-0.27,-0.64</t>
@@ -608,6 +608,51 @@
   </si>
   <si>
     <t>Effect_002</t>
+  </si>
+  <si>
+    <t>Effect_003</t>
+  </si>
+  <si>
+    <t>-0.24,-0.001</t>
+  </si>
+  <si>
+    <t>0.27,-0.001</t>
+  </si>
+  <si>
+    <t>Effect_004</t>
+  </si>
+  <si>
+    <t>-1.74,-0.15</t>
+  </si>
+  <si>
+    <t>Effect_005</t>
+  </si>
+  <si>
+    <t>-1.76,-0.14</t>
+  </si>
+  <si>
+    <t>Effect_006</t>
+  </si>
+  <si>
+    <t>0,0.21</t>
+  </si>
+  <si>
+    <t>Effect_007</t>
+  </si>
+  <si>
+    <t>-0.91,-0.36</t>
+  </si>
+  <si>
+    <t>Effect_008</t>
+  </si>
+  <si>
+    <t>-1.11,0.15</t>
+  </si>
+  <si>
+    <t>Effect_009</t>
+  </si>
+  <si>
+    <t>0.51,-0.93</t>
   </si>
 </sst>
 </file>
@@ -615,10 +660,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -631,7 +676,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,6 +760,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,30 +804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,84 +818,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -780,6 +825,96 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -789,7 +924,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,103 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,61 +1008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,6 +1019,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -994,45 +1111,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1041,39 +1119,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1082,145 +1127,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,10 +1630,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2841,8 +2888,8 @@
       <c r="G43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H43" t="s">
-        <v>16</v>
+      <c r="H43" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2874,6 +2921,209 @@
         <v>16</v>
       </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>30003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>30004</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>30005</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>30006</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>30007</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>30008</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>30009</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
     </row>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="13680" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -660,11 +660,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -682,11 +682,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,16 +734,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,7 +751,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,71 +804,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,13 +818,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -825,6 +825,132 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -834,43 +960,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +984,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,121 +1008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,6 +1019,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1042,54 +1081,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,6 +1110,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,133 +1139,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1633,9 +1633,9 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>25</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>28</v>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>36</v>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>42</v>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>46</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>49</v>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>52</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>52</v>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>58</v>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>62</v>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>66</v>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>69</v>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>71</v>
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>74</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>77</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>81</v>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>84</v>
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>87</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>87</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>87</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>92</v>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>95</v>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>98</v>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>101</v>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>105</v>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>107</v>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>69</v>
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>112</v>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>69</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>69</v>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>117</v>
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>120</v>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>123</v>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="12795"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-血条偏移量</t>
+攻击动画总帧数
+</t>
         </r>
       </text>
     </comment>
@@ -149,7 +150,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-血条宽度</t>
+血条偏移量</t>
         </r>
       </text>
     </comment>
@@ -171,7 +172,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-判定偏移点</t>
+血条宽度</t>
         </r>
       </text>
     </comment>
@@ -193,11 +194,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+判定偏移点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 发出攻击偏移点</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>id</t>
   </si>
@@ -236,6 +259,9 @@
   </si>
   <si>
     <t>attack_framce</t>
+  </si>
+  <si>
+    <t>attack_all_framce</t>
   </si>
   <si>
     <t>blood_offset</t>
@@ -660,11 +686,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -703,11 +729,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,14 +770,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -742,9 +792,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,15 +816,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -788,14 +830,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -804,16 +838,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,6 +851,90 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -840,79 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +992,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,55 +1028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,36 +1053,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,16 +1082,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,6 +1115,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,10 +1153,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,133 +1165,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1630,25 +1656,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1676,13 +1703,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1690,28 +1720,28 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
         <v>-0.69</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1719,28 +1749,28 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
         <v>-0.53</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1748,28 +1778,28 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
         <v>-0.66</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1777,28 +1807,28 @@
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1806,28 +1836,28 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
         <v>-0.69</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1835,28 +1865,28 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
         <v>-0.78</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1864,28 +1894,28 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
         <v>-0.54</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1893,28 +1923,28 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9">
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
         <v>-0.56</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1922,28 +1952,28 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
         <v>-0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1951,28 +1981,28 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
         <v>-0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>20010</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1980,28 +2010,28 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12">
         <v>-0.64</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2009,28 +2039,28 @@
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
         <v>-0.64</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>20012</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2038,28 +2068,28 @@
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
         <v>-0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>20013</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2067,28 +2097,28 @@
       <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>54</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15">
         <v>-0.66</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>20014</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2096,28 +2126,28 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16">
         <v>-0.66</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>20015</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2125,28 +2155,28 @@
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
       <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
         <v>-0.64</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>20016</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2154,28 +2184,28 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>20017</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2183,28 +2213,28 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>64</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19">
         <v>-0.54</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>20018</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2212,28 +2242,28 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
         <v>-0.71</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20019</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2241,28 +2271,28 @@
       <c r="D21">
         <v>6</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21">
+      <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
         <v>-0.66</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20020</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2270,28 +2300,28 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
         <v>-0.37</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>20021</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2299,28 +2329,28 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
         <v>-0.65</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>20022</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2328,28 +2358,28 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24">
         <v>-0.91</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>20023</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2357,28 +2387,28 @@
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
         <v>-0.88</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>20024</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2386,28 +2416,28 @@
       <c r="D26">
         <v>6</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>20025</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2415,28 +2445,28 @@
       <c r="D27">
         <v>6</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>20026</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2444,28 +2474,28 @@
       <c r="D28">
         <v>6</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>20027</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2473,28 +2503,28 @@
       <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>20028</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2502,28 +2532,28 @@
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>20029</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2531,28 +2561,28 @@
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
         <v>-0.63</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>20030</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2560,28 +2590,28 @@
       <c r="D32">
         <v>5</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>20031</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2589,28 +2619,28 @@
       <c r="D33">
         <v>4</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33">
         <v>-0.72</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>20032</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2618,28 +2648,28 @@
       <c r="D34">
         <v>4</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
+      <c r="F34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
         <v>-0.86</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2647,28 +2677,28 @@
       <c r="D35">
         <v>5</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
         <v>-0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>20034</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2676,28 +2706,28 @@
       <c r="D36">
         <v>5</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36">
+      <c r="F36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
         <v>-0.69</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>20035</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2705,28 +2735,28 @@
       <c r="D37">
         <v>4</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37">
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
         <v>-0.63</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>20036</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2734,28 +2764,28 @@
       <c r="D38">
         <v>5</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38">
+      <c r="F38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
         <v>-0.69</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>20037</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2763,28 +2793,28 @@
       <c r="D39">
         <v>5</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39">
+      <c r="F39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
         <v>-0.69</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>20038</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2792,28 +2822,28 @@
       <c r="D40">
         <v>5</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40">
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
         <v>-0.53</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>20039</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2821,28 +2851,28 @@
       <c r="D41">
         <v>6</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>20040</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2850,28 +2880,28 @@
       <c r="D42">
         <v>6</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
         <v>-1.55</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>30001</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2879,28 +2909,28 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>126</v>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>127</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>30002</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2908,28 +2938,28 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44" t="s">
-        <v>16</v>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>30003</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2937,28 +2967,28 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>30004</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2966,28 +2996,28 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>132</v>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>30005</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2995,28 +3025,28 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>134</v>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>30006</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3024,28 +3054,28 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" t="s">
-        <v>136</v>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>30007</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3053,28 +3083,28 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>30008</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3082,28 +3112,28 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>30009</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3111,19 +3141,19 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" t="s">
-        <v>142</v>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51">
+        <v>143</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
         <v>0</v>
       </c>
     </row>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -686,10 +686,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -715,6 +715,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -723,93 +738,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,7 +760,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,7 +768,78 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,19 +854,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +956,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,121 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,11 +1048,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,6 +1068,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,16 +1103,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,38 +1140,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,10 +1153,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,133 +1165,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1661,7 +1661,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1720,6 +1720,9 @@
       <c r="D2">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1749,6 +1752,9 @@
       <c r="D3">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1778,6 +1784,9 @@
       <c r="D4">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1807,6 +1816,9 @@
       <c r="D5">
         <v>8</v>
       </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1836,6 +1848,9 @@
       <c r="D6">
         <v>5</v>
       </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1865,6 +1880,9 @@
       <c r="D7">
         <v>5</v>
       </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1894,6 +1912,9 @@
       <c r="D8">
         <v>5</v>
       </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1923,6 +1944,9 @@
       <c r="D9">
         <v>5</v>
       </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1952,6 +1976,9 @@
       <c r="D10">
         <v>4</v>
       </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1981,6 +2008,9 @@
       <c r="D11">
         <v>3</v>
       </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
@@ -2010,6 +2040,9 @@
       <c r="D12">
         <v>5</v>
       </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
@@ -2039,6 +2072,9 @@
       <c r="D13">
         <v>4</v>
       </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
@@ -2068,6 +2104,9 @@
       <c r="D14">
         <v>6</v>
       </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
@@ -2097,6 +2136,9 @@
       <c r="D15">
         <v>5</v>
       </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2126,6 +2168,9 @@
       <c r="D16">
         <v>5</v>
       </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
@@ -2155,6 +2200,9 @@
       <c r="D17">
         <v>6</v>
       </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
@@ -2184,6 +2232,9 @@
       <c r="D18">
         <v>4</v>
       </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2213,6 +2264,9 @@
       <c r="D19">
         <v>5</v>
       </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>63</v>
       </c>
@@ -2242,6 +2296,9 @@
       <c r="D20">
         <v>4</v>
       </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>67</v>
       </c>
@@ -2271,6 +2328,9 @@
       <c r="D21">
         <v>6</v>
       </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>70</v>
       </c>
@@ -2300,6 +2360,9 @@
       <c r="D22">
         <v>4</v>
       </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>72</v>
       </c>
@@ -2329,6 +2392,9 @@
       <c r="D23">
         <v>4</v>
       </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>75</v>
       </c>
@@ -2358,6 +2424,9 @@
       <c r="D24">
         <v>5</v>
       </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>78</v>
       </c>
@@ -2387,6 +2456,9 @@
       <c r="D25">
         <v>4</v>
       </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>82</v>
       </c>
@@ -2416,6 +2488,9 @@
       <c r="D26">
         <v>6</v>
       </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>85</v>
       </c>
@@ -2445,6 +2520,9 @@
       <c r="D27">
         <v>6</v>
       </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>88</v>
       </c>
@@ -2474,6 +2552,9 @@
       <c r="D28">
         <v>6</v>
       </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>88</v>
       </c>
@@ -2503,6 +2584,9 @@
       <c r="D29">
         <v>6</v>
       </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>88</v>
       </c>
@@ -2532,6 +2616,9 @@
       <c r="D30">
         <v>4</v>
       </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>93</v>
       </c>
@@ -2561,6 +2648,9 @@
       <c r="D31">
         <v>6</v>
       </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>96</v>
       </c>
@@ -2590,6 +2680,9 @@
       <c r="D32">
         <v>5</v>
       </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>99</v>
       </c>
@@ -2619,6 +2712,9 @@
       <c r="D33">
         <v>4</v>
       </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
       <c r="F33" s="3" t="s">
         <v>102</v>
       </c>
@@ -2648,6 +2744,9 @@
       <c r="D34">
         <v>4</v>
       </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>106</v>
       </c>
@@ -2677,6 +2776,9 @@
       <c r="D35">
         <v>5</v>
       </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>108</v>
       </c>
@@ -2706,6 +2808,9 @@
       <c r="D36">
         <v>5</v>
       </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>70</v>
       </c>
@@ -2735,6 +2840,9 @@
       <c r="D37">
         <v>4</v>
       </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>113</v>
       </c>
@@ -2764,6 +2872,9 @@
       <c r="D38">
         <v>5</v>
       </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>70</v>
       </c>
@@ -2793,6 +2904,9 @@
       <c r="D39">
         <v>5</v>
       </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>70</v>
       </c>
@@ -2822,6 +2936,9 @@
       <c r="D40">
         <v>5</v>
       </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
       <c r="F40" s="3" t="s">
         <v>118</v>
       </c>
@@ -2851,6 +2968,9 @@
       <c r="D41">
         <v>6</v>
       </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
       <c r="F41" s="3" t="s">
         <v>121</v>
       </c>
@@ -2879,6 +2999,9 @@
       </c>
       <c r="D42">
         <v>6</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>124</v>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
   <si>
     <t>id</t>
   </si>
@@ -679,6 +679,12 @@
   </si>
   <si>
     <t>0.51,-0.93</t>
+  </si>
+  <si>
+    <t>Effect_1001</t>
+  </si>
+  <si>
+    <t>Effect_1002</t>
   </si>
 </sst>
 </file>
@@ -686,11 +692,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -715,76 +721,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,6 +752,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -829,21 +850,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -854,31 +860,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,13 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +932,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,25 +1010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,37 +1028,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,26 +1054,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,17 +1078,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,18 +1123,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,10 +1159,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,133 +1171,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,12 +1662,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3277,6 +3283,58 @@
         <v>17</v>
       </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>35001</v>
+      </c>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>35002</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
     </row>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>id</t>
   </si>
@@ -279,6 +279,9 @@
     <t>idel_y</t>
   </si>
   <si>
+    <t>目标框（左右高）</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
@@ -291,6 +294,9 @@
     <t>0.32,-0.28</t>
   </si>
   <si>
+    <t>0.38,0.45,1.1</t>
+  </si>
+  <si>
     <t>Monster_001</t>
   </si>
   <si>
@@ -303,6 +309,9 @@
     <t>0,0</t>
   </si>
   <si>
+    <t>0.45,0.45,0.83</t>
+  </si>
+  <si>
     <t>Monster_002</t>
   </si>
   <si>
@@ -315,6 +324,9 @@
     <t>-0.13,-0.5</t>
   </si>
   <si>
+    <t>0.58,0.51,0.87</t>
+  </si>
+  <si>
     <t>Monster_003</t>
   </si>
   <si>
@@ -324,6 +336,9 @@
     <t>-0.14,-0.13</t>
   </si>
   <si>
+    <t>0.91,0.69,0.94</t>
+  </si>
+  <si>
     <t>Monster_004</t>
   </si>
   <si>
@@ -333,6 +348,9 @@
     <t>-0.2,-0.16</t>
   </si>
   <si>
+    <t>1.02,0.67,1.06</t>
+  </si>
+  <si>
     <t>Monster_005</t>
   </si>
   <si>
@@ -342,6 +360,9 @@
     <t>-0.21,-0.51</t>
   </si>
   <si>
+    <t>0.91,0.56,0.98</t>
+  </si>
+  <si>
     <t>Monster_006</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>-0.33,-0.22</t>
   </si>
   <si>
+    <t>0.59,0.52,0.84</t>
+  </si>
+  <si>
     <t>Monster_007</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>-0.14,-0.47</t>
   </si>
   <si>
+    <t>0.35,0.39,0.59</t>
+  </si>
+  <si>
     <t>Monster_009</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>-0.16,-0.35</t>
   </si>
   <si>
+    <t>0.55,0.48,0.85</t>
+  </si>
+  <si>
     <t>Monster_010</t>
   </si>
   <si>
@@ -387,6 +417,9 @@
     <t>-0.22,-0.34</t>
   </si>
   <si>
+    <t>0.38,0.48,0.6</t>
+  </si>
+  <si>
     <t>Monster_011</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>-0.18,0.44</t>
   </si>
   <si>
+    <t>0.38,0.5,0.65</t>
+  </si>
+  <si>
     <t>Monster_012</t>
   </si>
   <si>
@@ -405,6 +441,9 @@
     <t>-0.15,-0.47</t>
   </si>
   <si>
+    <t>0.26,0.29,0.47</t>
+  </si>
+  <si>
     <t>Monster_013</t>
   </si>
   <si>
@@ -417,12 +456,18 @@
     <t>-0.086,-0.52</t>
   </si>
   <si>
+    <t>0.34,0.43,0.85</t>
+  </si>
+  <si>
     <t>Monster_014</t>
   </si>
   <si>
     <t>-0.143,-0.475</t>
   </si>
   <si>
+    <t>0.39,0.41,0.89</t>
+  </si>
+  <si>
     <t>Monster_015</t>
   </si>
   <si>
@@ -432,9 +477,15 @@
     <t>0.16,-0.48</t>
   </si>
   <si>
+    <t>0.28,0.31,0.47</t>
+  </si>
+  <si>
     <t>Monster_016</t>
   </si>
   <si>
+    <t>0.66,0.79,1.35</t>
+  </si>
+  <si>
     <t>Monster_017</t>
   </si>
   <si>
@@ -447,6 +498,9 @@
     <t>1.01,0.12</t>
   </si>
   <si>
+    <t>0.42,0.54,0.89</t>
+  </si>
+  <si>
     <t>Monster_018</t>
   </si>
   <si>
@@ -456,12 +510,18 @@
     <t>-0.19,-0.16</t>
   </si>
   <si>
+    <t>0.5,0.61,1.14</t>
+  </si>
+  <si>
     <t>Monster_019</t>
   </si>
   <si>
     <t>-0.13,0</t>
   </si>
   <si>
+    <t>0.27,0.35,0.5</t>
+  </si>
+  <si>
     <t>Monster_020</t>
   </si>
   <si>
@@ -471,6 +531,9 @@
     <t>-0.18,0.08</t>
   </si>
   <si>
+    <t>0.42,0.42,1.16</t>
+  </si>
+  <si>
     <t>Monster_021</t>
   </si>
   <si>
@@ -480,6 +543,9 @@
     <t>-0.15,-0.36</t>
   </si>
   <si>
+    <t>0.55,0.44,0.78</t>
+  </si>
+  <si>
     <t>Monster_022</t>
   </si>
   <si>
@@ -492,6 +558,9 @@
     <t>-0.61,-0.32</t>
   </si>
   <si>
+    <t>0.59,0.81,1.06</t>
+  </si>
+  <si>
     <t>Monster_023</t>
   </si>
   <si>
@@ -501,6 +570,9 @@
     <t>-0.27,-0.64</t>
   </si>
   <si>
+    <t>0.51,0.43,0.8</t>
+  </si>
+  <si>
     <t>Monster_024</t>
   </si>
   <si>
@@ -510,6 +582,9 @@
     <t>-0.15,-0.41</t>
   </si>
   <si>
+    <t>0.46,0.34,0.78</t>
+  </si>
+  <si>
     <t>Monster_025</t>
   </si>
   <si>
@@ -519,6 +594,9 @@
     <t>-0.18,-0.5</t>
   </si>
   <si>
+    <t>0.31,0.32,0.45</t>
+  </si>
+  <si>
     <t>Monster_026</t>
   </si>
   <si>
@@ -534,6 +612,9 @@
     <t>-0.17,-0.31</t>
   </si>
   <si>
+    <t>0.5,0.5,1.08</t>
+  </si>
+  <si>
     <t>Monster_029</t>
   </si>
   <si>
@@ -543,6 +624,9 @@
     <t>-0.18,-0.38</t>
   </si>
   <si>
+    <t>0.5,0.5,0.94</t>
+  </si>
+  <si>
     <t>Monster_030</t>
   </si>
   <si>
@@ -552,6 +636,9 @@
     <t>-0.16,-0.37</t>
   </si>
   <si>
+    <t>0.56,0.48,1.2</t>
+  </si>
+  <si>
     <t>Monster_031</t>
   </si>
   <si>
@@ -564,12 +651,18 @@
     <t>-1.06,-0.54</t>
   </si>
   <si>
+    <t>0.59,0.67,1</t>
+  </si>
+  <si>
     <t>Monster_032</t>
   </si>
   <si>
     <t>0,1.4</t>
   </si>
   <si>
+    <t>1.4,1.4,2</t>
+  </si>
+  <si>
     <t>Monster_033</t>
   </si>
   <si>
@@ -579,12 +672,18 @@
     <t>-0.23,-0.12</t>
   </si>
   <si>
+    <t>0.77,1.69,1.65</t>
+  </si>
+  <si>
     <t>Monster_034</t>
   </si>
   <si>
     <t>-0.14,-0.51</t>
   </si>
   <si>
+    <t>0.4,0.4,0.67</t>
+  </si>
+  <si>
     <t>Monster_035</t>
   </si>
   <si>
@@ -594,6 +693,9 @@
     <t>-0.16,-0.41</t>
   </si>
   <si>
+    <t>0.53,0.67,0.94</t>
+  </si>
+  <si>
     <t>Monster_036</t>
   </si>
   <si>
@@ -609,6 +711,9 @@
     <t>-0.34,-0.31</t>
   </si>
   <si>
+    <t>0.64,0.32,0.55</t>
+  </si>
+  <si>
     <t>Monster_039</t>
   </si>
   <si>
@@ -618,6 +723,9 @@
     <t>-0.32,0.46</t>
   </si>
   <si>
+    <t>1.15,0.7,2</t>
+  </si>
+  <si>
     <t>Monster_040</t>
   </si>
   <si>
@@ -625,6 +733,9 @@
   </si>
   <si>
     <t>-0.35,0.62</t>
+  </si>
+  <si>
+    <t>1.67,1,4</t>
   </si>
   <si>
     <t>Effect_001</t>
@@ -692,10 +803,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -708,12 +819,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -722,7 +834,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,53 +924,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,36 +961,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -860,13 +971,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,13 +1109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,19 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,127 +1139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,9 +1167,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,10 +1193,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1123,7 +1243,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,15 +1262,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1159,10 +1270,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1171,133 +1282,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1662,12 +1773,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1679,9 +1790,10 @@
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1712,13 +1824,16 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1730,27 +1845,30 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1762,27 +1880,30 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>-0.53</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1794,27 +1915,30 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>-0.66</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1826,27 +1950,30 @@
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5">
         <v>-0.45</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1858,27 +1985,30 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1890,27 +2020,30 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>-0.78</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1922,27 +2055,30 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>-0.54</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1954,27 +2090,30 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9">
         <v>-0.56</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1986,27 +2125,30 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10">
         <v>-0.66</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2018,27 +2160,30 @@
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11">
         <v>-0.62</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>20010</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2050,27 +2195,30 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2082,27 +2230,30 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13">
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>20012</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2114,27 +2265,30 @@
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14">
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>20013</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2146,27 +2300,30 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J15">
         <v>-0.66</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>20014</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2178,27 +2335,30 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J16">
         <v>-0.66</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>20015</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2210,27 +2370,30 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J17">
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>20016</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2242,27 +2405,30 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>20017</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2274,27 +2440,30 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J19">
         <v>-0.54</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>20018</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2306,27 +2475,30 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J20">
         <v>-0.71</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20019</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2338,27 +2510,30 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J21">
         <v>-0.66</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20020</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2370,27 +2545,30 @@
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J22">
         <v>-0.37</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>20021</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2402,27 +2580,30 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J23">
         <v>-0.65</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>20022</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2434,27 +2615,30 @@
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="J24">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>20023</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2466,27 +2650,30 @@
         <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J25">
         <v>-0.88</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>20024</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2498,27 +2685,30 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J26">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>20025</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2530,27 +2720,30 @@
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J27">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>20026</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2562,27 +2755,30 @@
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J28">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>20027</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2594,27 +2790,30 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J29">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>20028</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2626,27 +2825,30 @@
         <v>8</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J30">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>20029</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2658,27 +2860,30 @@
         <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J31">
         <v>-0.63</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>20030</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2690,27 +2895,30 @@
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J32">
         <v>-0.67</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>20031</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2722,27 +2930,30 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="J33">
         <v>-0.72</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>20032</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2754,27 +2965,30 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J34">
         <v>-0.86</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2786,27 +3000,30 @@
         <v>8</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J35">
         <v>-0.79</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>20034</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2818,27 +3035,30 @@
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J36">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>20035</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2850,27 +3070,30 @@
         <v>5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J37">
         <v>-0.63</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>20036</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2882,27 +3105,30 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J38">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>20037</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2914,27 +3140,30 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J39">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>20038</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2946,27 +3175,30 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J40">
         <v>-0.53</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>20039</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2978,27 +3210,30 @@
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J41">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>20040</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3010,19 +3245,22 @@
         <v>15</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J42">
         <v>-1.55</v>
+      </c>
+      <c r="K42" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3030,7 +3268,7 @@
         <v>30001</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3045,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3059,7 +3297,7 @@
         <v>30002</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3074,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3088,7 +3326,7 @@
         <v>30003</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3103,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="I45" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3117,7 +3355,7 @@
         <v>30004</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3132,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3146,7 +3384,7 @@
         <v>30005</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3161,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3175,7 +3413,7 @@
         <v>30006</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3190,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3204,7 +3442,7 @@
         <v>30007</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3219,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3233,7 +3471,7 @@
         <v>30008</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3248,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3262,7 +3500,7 @@
         <v>30009</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3277,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3291,7 +3529,7 @@
         <v>35001</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3317,7 +3555,7 @@
         <v>35002</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C53">
         <v>1</v>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,12 +242,85 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+动作列表
+0 无状态动画
+1 待机
+2 攻击
+3 受击
+4 死亡
+5 移动
+6 胜利</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+总帧数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目标框（左右高）</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>id</t>
   </si>
@@ -279,10 +352,16 @@
     <t>idel_y</t>
   </si>
   <si>
-    <t>目标框（左右高）</t>
-  </si>
-  <si>
-    <t>Role</t>
+    <t>action_list</t>
+  </si>
+  <si>
+    <t>action_frame</t>
+  </si>
+  <si>
+    <t>target_border</t>
+  </si>
+  <si>
+    <t>Role_001</t>
   </si>
   <si>
     <t>-0.15,0.6</t>
@@ -294,6 +373,12 @@
     <t>0.32,-0.28</t>
   </si>
   <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>7,7,4,6,8,5</t>
+  </si>
+  <si>
     <t>0.38,0.45,1.1</t>
   </si>
   <si>
@@ -309,6 +394,12 @@
     <t>0,0</t>
   </si>
   <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>4,8,5,7,8</t>
+  </si>
+  <si>
     <t>0.45,0.45,0.83</t>
   </si>
   <si>
@@ -324,6 +415,9 @@
     <t>-0.13,-0.5</t>
   </si>
   <si>
+    <t>4,10,5,8,8</t>
+  </si>
+  <si>
     <t>0.58,0.51,0.87</t>
   </si>
   <si>
@@ -336,6 +430,9 @@
     <t>-0.14,-0.13</t>
   </si>
   <si>
+    <t>4,13,6,10,8</t>
+  </si>
+  <si>
     <t>0.91,0.69,0.94</t>
   </si>
   <si>
@@ -348,6 +445,9 @@
     <t>-0.2,-0.16</t>
   </si>
   <si>
+    <t>4,8,4,8,6</t>
+  </si>
+  <si>
     <t>1.02,0.67,1.06</t>
   </si>
   <si>
@@ -360,6 +460,9 @@
     <t>-0.21,-0.51</t>
   </si>
   <si>
+    <t>4,12,5,9,10</t>
+  </si>
+  <si>
     <t>0.91,0.56,0.98</t>
   </si>
   <si>
@@ -390,6 +493,9 @@
     <t>-0.14,-0.47</t>
   </si>
   <si>
+    <t>4,7,5,7,6</t>
+  </si>
+  <si>
     <t>0.35,0.39,0.59</t>
   </si>
   <si>
@@ -402,6 +508,9 @@
     <t>-0.16,-0.35</t>
   </si>
   <si>
+    <t>4,6,5,7,6</t>
+  </si>
+  <si>
     <t>0.55,0.48,0.85</t>
   </si>
   <si>
@@ -441,6 +550,9 @@
     <t>-0.15,-0.47</t>
   </si>
   <si>
+    <t>4,8,3,7,5</t>
+  </si>
+  <si>
     <t>0.26,0.29,0.47</t>
   </si>
   <si>
@@ -483,6 +595,9 @@
     <t>Monster_016</t>
   </si>
   <si>
+    <t>4,7,4,8,6</t>
+  </si>
+  <si>
     <t>0.66,0.79,1.35</t>
   </si>
   <si>
@@ -531,6 +646,9 @@
     <t>-0.18,0.08</t>
   </si>
   <si>
+    <t>8,11,5,9,8</t>
+  </si>
+  <si>
     <t>0.42,0.42,1.16</t>
   </si>
   <si>
@@ -543,6 +661,9 @@
     <t>-0.15,-0.36</t>
   </si>
   <si>
+    <t>4,8,3,8,8</t>
+  </si>
+  <si>
     <t>0.55,0.44,0.78</t>
   </si>
   <si>
@@ -558,6 +679,9 @@
     <t>-0.61,-0.32</t>
   </si>
   <si>
+    <t>4,9,5,7,8</t>
+  </si>
+  <si>
     <t>0.59,0.81,1.06</t>
   </si>
   <si>
@@ -582,6 +706,9 @@
     <t>-0.15,-0.41</t>
   </si>
   <si>
+    <t>4,9,7,6,6</t>
+  </si>
+  <si>
     <t>0.46,0.34,0.78</t>
   </si>
   <si>
@@ -612,6 +739,9 @@
     <t>-0.17,-0.31</t>
   </si>
   <si>
+    <t>4,8,4,9,6</t>
+  </si>
+  <si>
     <t>0.5,0.5,1.08</t>
   </si>
   <si>
@@ -624,6 +754,9 @@
     <t>-0.18,-0.38</t>
   </si>
   <si>
+    <t>4,8,3,12,5</t>
+  </si>
+  <si>
     <t>0.5,0.5,0.94</t>
   </si>
   <si>
@@ -636,6 +769,9 @@
     <t>-0.16,-0.37</t>
   </si>
   <si>
+    <t>4,9,4,9,6</t>
+  </si>
+  <si>
     <t>0.56,0.48,1.2</t>
   </si>
   <si>
@@ -660,6 +796,9 @@
     <t>0,1.4</t>
   </si>
   <si>
+    <t>4,7,4,8,8</t>
+  </si>
+  <si>
     <t>1.4,1.4,2</t>
   </si>
   <si>
@@ -672,6 +811,9 @@
     <t>-0.23,-0.12</t>
   </si>
   <si>
+    <t>4,8,4,7,8</t>
+  </si>
+  <si>
     <t>0.77,1.69,1.65</t>
   </si>
   <si>
@@ -681,6 +823,9 @@
     <t>-0.14,-0.51</t>
   </si>
   <si>
+    <t>4,6,4,7,6</t>
+  </si>
+  <si>
     <t>0.4,0.4,0.67</t>
   </si>
   <si>
@@ -693,6 +838,9 @@
     <t>-0.16,-0.41</t>
   </si>
   <si>
+    <t>4,5,5,6,6</t>
+  </si>
+  <si>
     <t>0.53,0.67,0.94</t>
   </si>
   <si>
@@ -711,6 +859,9 @@
     <t>-0.34,-0.31</t>
   </si>
   <si>
+    <t>4,12,6,11,10</t>
+  </si>
+  <si>
     <t>0.64,0.32,0.55</t>
   </si>
   <si>
@@ -723,6 +874,9 @@
     <t>-0.32,0.46</t>
   </si>
   <si>
+    <t>8,10,5,9,8</t>
+  </si>
+  <si>
     <t>1.15,0.7,2</t>
   </si>
   <si>
@@ -733,6 +887,9 @@
   </si>
   <si>
     <t>-0.35,0.62</t>
+  </si>
+  <si>
+    <t>10,15,6,9,10</t>
   </si>
   <si>
     <t>1.67,1,4</t>
@@ -803,11 +960,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -815,6 +972,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,21 +1007,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,35 +1030,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,9 +1043,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,38 +1059,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,7 +1073,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -961,6 +1095,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -968,12 +1125,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -989,7 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,13 +1158,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1194,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,67 +1290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,37 +1308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,6 +1333,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1187,6 +1368,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,45 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1270,10 +1427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1282,16 +1439,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,115 +1457,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1773,27 +1930,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="9" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1827,13 +1987,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1845,30 +2011,36 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>-0.69</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1880,30 +2052,36 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>-0.53</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1915,30 +2093,36 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>-0.66</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1950,30 +2134,36 @@
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <v>-0.45</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1985,30 +2175,36 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J6">
         <v>-0.69</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2020,30 +2216,36 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J7">
         <v>-0.78</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2055,30 +2257,36 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>-0.54</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2090,30 +2298,36 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J9">
         <v>-0.56</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2125,30 +2339,36 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J10">
         <v>-0.66</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2160,30 +2380,36 @@
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J11">
         <v>-0.62</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>20010</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2195,30 +2421,36 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J12">
         <v>-0.64</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2230,30 +2462,36 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J13">
         <v>-0.64</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>20012</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2265,30 +2503,36 @@
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J14">
         <v>-0.64</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>20013</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2300,30 +2544,36 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J15">
         <v>-0.66</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>20014</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2335,30 +2585,36 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="J16">
         <v>-0.66</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>20015</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2370,30 +2626,36 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J17">
         <v>-0.64</v>
       </c>
       <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>20016</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2405,30 +2667,36 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>20017</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2440,30 +2708,36 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J19">
         <v>-0.54</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>20018</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2475,30 +2749,36 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J20">
         <v>-0.71</v>
       </c>
       <c r="K20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20019</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2510,30 +2790,36 @@
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J21">
         <v>-0.66</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>20020</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2545,30 +2831,36 @@
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J22">
         <v>-0.37</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>20021</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2580,30 +2872,36 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J23">
         <v>-0.65</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>20022</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2615,30 +2913,36 @@
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="J24">
         <v>-0.91</v>
       </c>
       <c r="K24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>20023</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2650,30 +2954,36 @@
         <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J25">
         <v>-0.88</v>
       </c>
       <c r="K25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>20024</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2685,30 +2995,36 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J26">
         <v>-0.67</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>20025</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2720,30 +3036,36 @@
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J27">
         <v>-0.67</v>
       </c>
       <c r="K27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>20026</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2755,30 +3077,36 @@
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J28">
         <v>-0.67</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>20027</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2790,30 +3118,36 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J29">
         <v>-0.67</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>20028</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2825,30 +3159,36 @@
         <v>8</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J30">
         <v>-0.67</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>20029</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2860,30 +3200,36 @@
         <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J31">
         <v>-0.63</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>20030</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2895,30 +3241,36 @@
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J32">
         <v>-0.67</v>
       </c>
       <c r="K32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>20031</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2930,30 +3282,36 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="J33">
         <v>-0.72</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>20032</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2965,30 +3323,36 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J34">
         <v>-0.86</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3000,30 +3364,36 @@
         <v>8</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J35">
         <v>-0.79</v>
       </c>
       <c r="K35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>163</v>
+      </c>
+      <c r="M35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>20034</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3035,30 +3405,36 @@
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J36">
         <v>-0.69</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>167</v>
+      </c>
+      <c r="M36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>20035</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3070,30 +3446,36 @@
         <v>5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J37">
         <v>-0.63</v>
       </c>
       <c r="K37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>172</v>
+      </c>
+      <c r="M37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>20036</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3105,30 +3487,36 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J38">
         <v>-0.69</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>167</v>
+      </c>
+      <c r="M38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>20037</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3140,30 +3528,36 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J39">
         <v>-0.69</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>20038</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3175,30 +3569,36 @@
         <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J40">
         <v>-0.53</v>
       </c>
       <c r="K40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>20039</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3210,30 +3610,36 @@
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J41">
         <v>-0.3</v>
       </c>
       <c r="K41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>184</v>
+      </c>
+      <c r="M41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>20040</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3245,22 +3651,28 @@
         <v>15</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J42">
         <v>-1.55</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M42" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3268,7 +3680,7 @@
         <v>30001</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3283,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3297,7 +3709,7 @@
         <v>30002</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3312,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3326,7 +3738,7 @@
         <v>30003</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3341,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="I45" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3355,7 +3767,7 @@
         <v>30004</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3370,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3384,7 +3796,7 @@
         <v>30005</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3399,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3413,7 +3825,7 @@
         <v>30006</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3428,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3442,7 +3854,7 @@
         <v>30007</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3457,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3471,7 +3883,7 @@
         <v>30008</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3486,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3500,7 +3912,7 @@
         <v>30009</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3515,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3529,7 +3941,7 @@
         <v>35001</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3555,7 +3967,7 @@
         <v>35002</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C53">
         <v>1</v>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8355"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,8 +261,8 @@
           </rPr>
           <t xml:space="preserve">
 动作列表
-0 无状态动画
-1 待机
+0 为空状态
+1 站立
 2 攻击
 3 受击
 4 死亡
@@ -289,7 +289,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-总帧数</t>
+帧数</t>
         </r>
       </text>
     </comment>
@@ -960,10 +960,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -975,7 +975,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -984,7 +1004,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -999,14 +1019,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1014,7 +1034,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,30 +1048,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,34 +1072,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1112,10 +1087,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1128,7 +1128,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,7 +1224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1248,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,151 +1302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,10 +1324,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1336,8 +1334,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,6 +1385,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1390,32 +1414,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1427,31 +1427,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,112 +1460,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1949,7 +1949,8 @@
     <col min="8" max="8" width="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
     <col min="13" max="13" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3675,7 +3676,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>30001</v>
       </c>
@@ -3703,8 +3704,14 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>30002</v>
       </c>
@@ -3732,8 +3739,14 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>30003</v>
       </c>
@@ -3761,8 +3774,14 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>30004</v>
       </c>
@@ -3790,8 +3809,14 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>30005</v>
       </c>
@@ -3819,8 +3844,14 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>30006</v>
       </c>
@@ -3848,8 +3879,14 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>30007</v>
       </c>
@@ -3877,8 +3914,14 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>30008</v>
       </c>
@@ -3906,8 +3949,14 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>30009</v>
       </c>
@@ -3934,6 +3983,12 @@
       </c>
       <c r="J51">
         <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:10">

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -960,10 +960,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -975,27 +975,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1011,30 +1006,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,15 +1024,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,7 +1061,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,17 +1096,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,7 +1105,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,7 +1128,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,19 +1230,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,49 +1278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,67 +1296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,19 +1308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,60 +1327,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,6 +1357,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1419,6 +1380,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1427,10 +1427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,133 +1439,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1933,21 +1933,20 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="18.25" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="27600" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,10 +960,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -975,11 +975,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -992,14 +1005,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1007,7 +1012,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1022,16 +1027,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,7 +1051,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,36 +1082,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,14 +1105,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1128,31 +1128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,25 +1146,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,67 +1200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,7 +1218,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,31 +1308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,65 +1319,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1399,8 +1340,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1419,6 +1375,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1427,10 +1427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,133 +1439,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1933,9 +1933,9 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3990,7 +3990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>35001</v>
       </c>
@@ -4015,8 +4015,14 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>35002</v>
       </c>
@@ -4040,6 +4046,12 @@
       </c>
       <c r="J53">
         <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="11625"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>id</t>
   </si>
@@ -952,7 +952,13 @@
     <t>Effect_1001</t>
   </si>
   <si>
+    <t>0,-0.5</t>
+  </si>
+  <si>
     <t>Effect_1002</t>
+  </si>
+  <si>
+    <t>0,-0.27</t>
   </si>
 </sst>
 </file>
@@ -960,8 +966,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
@@ -975,8 +981,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,14 +1026,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,46 +1087,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,22 +1104,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,32 +1112,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1128,7 +1134,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,7 +1254,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,55 +1302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,103 +1314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,6 +1325,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1340,38 +1370,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,7 +1380,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,11 +1411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1427,10 +1433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,133 +1445,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1933,9 +1939,9 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4009,6 +4015,9 @@
       <c r="G52">
         <v>0</v>
       </c>
+      <c r="H52" t="s">
+        <v>210</v>
+      </c>
       <c r="I52">
         <v>0</v>
       </c>
@@ -4027,7 +4036,7 @@
         <v>35002</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4040,6 +4049,9 @@
       </c>
       <c r="G53">
         <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>212</v>
       </c>
       <c r="I53">
         <v>0</v>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,13 +952,13 @@
     <t>Effect_1001</t>
   </si>
   <si>
-    <t>0,-0.5</t>
+    <t>0,0.5</t>
   </si>
   <si>
     <t>Effect_1002</t>
   </si>
   <si>
-    <t>0,-0.27</t>
+    <t>0,0.27</t>
   </si>
 </sst>
 </file>
@@ -966,10 +966,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -981,24 +981,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,8 +1024,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,46 +1064,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,31 +1072,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,8 +1086,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,13 +1134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,7 +1158,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,7 +1188,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,13 +1224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,37 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,25 +1290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,25 +1302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,21 +1325,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1370,8 +1355,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1379,8 +1394,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,21 +1425,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1433,10 +1433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,133 +1445,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,7 +1941,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4018,8 +4018,8 @@
       <c r="H52" t="s">
         <v>210</v>
       </c>
-      <c r="I52">
-        <v>0</v>
+      <c r="I52" t="s">
+        <v>23</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4053,8 +4053,8 @@
       <c r="H53" t="s">
         <v>212</v>
       </c>
-      <c r="I53">
-        <v>0</v>
+      <c r="I53" t="s">
+        <v>23</v>
       </c>
       <c r="J53">
         <v>0</v>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -966,10 +966,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -982,7 +982,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,21 +1087,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,99 +1124,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1131,6 +1131,114 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1146,109 +1254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,19 +1272,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,31 +1308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,39 +1325,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1372,21 +1339,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,6 +1369,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1425,6 +1410,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1433,10 +1433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,133 +1445,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,9 +1939,9 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <t>id</t>
   </si>
@@ -959,6 +959,45 @@
   </si>
   <si>
     <t>0,0.27</t>
+  </si>
+  <si>
+    <t>Effect_1003</t>
+  </si>
+  <si>
+    <t>Effect_1004</t>
+  </si>
+  <si>
+    <t>Effect_1005</t>
+  </si>
+  <si>
+    <t>0,-0.9</t>
+  </si>
+  <si>
+    <t>Effect_1006</t>
+  </si>
+  <si>
+    <t>0,-0.27</t>
+  </si>
+  <si>
+    <t>Effect_1007</t>
+  </si>
+  <si>
+    <t>Effect_1008</t>
+  </si>
+  <si>
+    <t>Effect_1009</t>
+  </si>
+  <si>
+    <t>Effect_1010</t>
+  </si>
+  <si>
+    <t>Effect_1011</t>
+  </si>
+  <si>
+    <t>Effect_1012</t>
+  </si>
+  <si>
+    <t>Effect_1013</t>
   </si>
 </sst>
 </file>
@@ -966,11 +1005,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -981,15 +1020,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,8 +1035,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,17 +1081,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,22 +1100,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1072,15 +1120,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,33 +1136,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1134,7 +1173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,13 +1191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,13 +1203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,19 +1221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,25 +1251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1281,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,31 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,13 +1341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,6 +1364,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1367,24 +1430,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1402,6 +1447,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1410,21 +1464,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1433,10 +1472,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,133 +1484,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1936,12 +1975,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4064,6 +4103,214 @@
       </c>
       <c r="L53">
         <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>35003</v>
+      </c>
+      <c r="B54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>35004</v>
+      </c>
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>35005</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>35006</v>
+      </c>
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>35007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>35008</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>35009</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>35010</v>
+      </c>
+      <c r="B61" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>35011</v>
+      </c>
+      <c r="B62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>35012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>35013</v>
+      </c>
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
   <si>
     <t>id</t>
   </si>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t>Effect_1013</t>
+  </si>
+  <si>
+    <t>Effect_fire</t>
   </si>
 </sst>
 </file>
@@ -1005,11 +1008,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1020,9 +1023,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,9 +1037,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,43 +1068,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1103,9 +1091,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,16 +1136,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,14 +1145,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,8 +1159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,13 +1176,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,13 +1290,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,79 +1344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,61 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,30 +1367,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1409,23 +1388,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1456,6 +1420,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1464,6 +1452,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1472,10 +1475,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1484,133 +1487,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1975,12 +1978,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4311,6 +4314,42 @@
       </c>
       <c r="C64">
         <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>40001</v>
+      </c>
+      <c r="B65" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
     <t>Effect_1005</t>
   </si>
   <si>
-    <t>0,-0.9</t>
+    <t>0,0.9</t>
   </si>
   <si>
     <t>Effect_1006</t>
@@ -1008,13 +1008,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,14 +1024,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,59 +1052,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1120,6 +1067,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1128,9 +1089,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,9 +1112,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,9 +1152,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1176,7 +1183,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,13 +1225,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1255,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,49 +1321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,43 +1345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,43 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,6 +1402,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1412,6 +1434,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1420,9 +1451,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,32 +1474,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1475,159 +1482,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1981,9 +1994,9 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1992,13 +2005,13 @@
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2017,19 +2030,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -2038,7 +2051,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2058,19 +2071,19 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>-0.69</v>
       </c>
       <c r="K2" t="s">
@@ -2079,7 +2092,7 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2099,19 +2112,19 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1">
         <v>-0.53</v>
       </c>
       <c r="K3" t="s">
@@ -2120,7 +2133,7 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2140,19 +2153,19 @@
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>-0.66</v>
       </c>
       <c r="K4" t="s">
@@ -2161,7 +2174,7 @@
       <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2181,19 +2194,19 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1">
         <v>-0.45</v>
       </c>
       <c r="K5" t="s">
@@ -2202,7 +2215,7 @@
       <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2222,19 +2235,19 @@
       <c r="E6">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1">
         <v>-0.69</v>
       </c>
       <c r="K6" t="s">
@@ -2243,7 +2256,7 @@
       <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2263,19 +2276,19 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1">
         <v>-0.78</v>
       </c>
       <c r="K7" t="s">
@@ -2284,7 +2297,7 @@
       <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2304,19 +2317,19 @@
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
         <v>-0.54</v>
       </c>
       <c r="K8" t="s">
@@ -2325,7 +2338,7 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2345,19 +2358,19 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1">
         <v>-0.56</v>
       </c>
       <c r="K9" t="s">
@@ -2366,7 +2379,7 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2386,19 +2399,19 @@
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1">
         <v>-0.66</v>
       </c>
       <c r="K10" t="s">
@@ -2407,7 +2420,7 @@
       <c r="L10" t="s">
         <v>57</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2427,19 +2440,19 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1">
         <v>-0.62</v>
       </c>
       <c r="K11" t="s">
@@ -2448,7 +2461,7 @@
       <c r="L11" t="s">
         <v>62</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2468,19 +2481,19 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>-0.64</v>
       </c>
       <c r="K12" t="s">
@@ -2489,7 +2502,7 @@
       <c r="L12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2509,19 +2522,19 @@
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1">
         <v>-0.64</v>
       </c>
       <c r="K13" t="s">
@@ -2530,7 +2543,7 @@
       <c r="L13" t="s">
         <v>57</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2550,19 +2563,19 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1">
         <v>-0.64</v>
       </c>
       <c r="K14" t="s">
@@ -2571,7 +2584,7 @@
       <c r="L14" t="s">
         <v>76</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2591,19 +2604,19 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>-0.66</v>
       </c>
       <c r="K15" t="s">
@@ -2612,7 +2625,7 @@
       <c r="L15" t="s">
         <v>31</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2632,19 +2645,19 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>-0.66</v>
       </c>
       <c r="K16" t="s">
@@ -2653,7 +2666,7 @@
       <c r="L16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2673,19 +2686,19 @@
       <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1">
         <v>-0.64</v>
       </c>
       <c r="K17" t="s">
@@ -2694,7 +2707,7 @@
       <c r="L17" t="s">
         <v>76</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2714,19 +2727,19 @@
       <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18">
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" t="s">
@@ -2735,7 +2748,7 @@
       <c r="L18" t="s">
         <v>91</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2755,19 +2768,19 @@
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>-0.54</v>
       </c>
       <c r="K19" t="s">
@@ -2776,7 +2789,7 @@
       <c r="L19" t="s">
         <v>91</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2796,19 +2809,19 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>99</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1">
         <v>-0.71</v>
       </c>
       <c r="K20" t="s">
@@ -2817,7 +2830,7 @@
       <c r="L20" t="s">
         <v>91</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2837,19 +2850,19 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21">
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1">
         <v>-0.66</v>
       </c>
       <c r="K21" t="s">
@@ -2858,7 +2871,7 @@
       <c r="L21" t="s">
         <v>76</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2878,19 +2891,19 @@
       <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>106</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1">
         <v>-0.37</v>
       </c>
       <c r="K22" t="s">
@@ -2899,7 +2912,7 @@
       <c r="L22" t="s">
         <v>108</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2919,19 +2932,19 @@
       <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>111</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="1">
         <v>-0.65</v>
       </c>
       <c r="K23" t="s">
@@ -2940,7 +2953,7 @@
       <c r="L23" t="s">
         <v>113</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2960,19 +2973,19 @@
       <c r="E24">
         <v>9</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>-0.91</v>
       </c>
       <c r="K24" t="s">
@@ -2981,7 +2994,7 @@
       <c r="L24" t="s">
         <v>119</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3001,19 +3014,19 @@
       <c r="E25">
         <v>8</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1">
         <v>-0.88</v>
       </c>
       <c r="K25" t="s">
@@ -3022,7 +3035,7 @@
       <c r="L25" t="s">
         <v>25</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3042,19 +3055,19 @@
       <c r="E26">
         <v>9</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>126</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="1">
         <v>-0.67</v>
       </c>
       <c r="K26" t="s">
@@ -3063,7 +3076,7 @@
       <c r="L26" t="s">
         <v>128</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3083,19 +3096,19 @@
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>131</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="1">
         <v>-0.67</v>
       </c>
       <c r="K27" t="s">
@@ -3104,7 +3117,7 @@
       <c r="L27" t="s">
         <v>128</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3124,19 +3137,19 @@
       <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>131</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1">
         <v>-0.67</v>
       </c>
       <c r="K28" t="s">
@@ -3145,7 +3158,7 @@
       <c r="L28" t="s">
         <v>128</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3165,19 +3178,19 @@
       <c r="E29">
         <v>9</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>131</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1">
         <v>-0.67</v>
       </c>
       <c r="K29" t="s">
@@ -3186,7 +3199,7 @@
       <c r="L29" t="s">
         <v>128</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3206,19 +3219,19 @@
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1">
         <v>-0.67</v>
       </c>
       <c r="K30" t="s">
@@ -3227,7 +3240,7 @@
       <c r="L30" t="s">
         <v>139</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3247,19 +3260,19 @@
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="5" t="s">
         <v>142</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1">
         <v>-0.63</v>
       </c>
       <c r="K31" t="s">
@@ -3268,7 +3281,7 @@
       <c r="L31" t="s">
         <v>144</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3288,19 +3301,19 @@
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1">
         <v>-0.67</v>
       </c>
       <c r="K32" t="s">
@@ -3309,7 +3322,7 @@
       <c r="L32" t="s">
         <v>149</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3329,19 +3342,19 @@
       <c r="E33">
         <v>8</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>152</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>-0.72</v>
       </c>
       <c r="K33" t="s">
@@ -3350,7 +3363,7 @@
       <c r="L33" t="s">
         <v>41</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3370,19 +3383,19 @@
       <c r="E34">
         <v>7</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34">
+      <c r="H34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1">
         <v>-0.86</v>
       </c>
       <c r="K34" t="s">
@@ -3391,7 +3404,7 @@
       <c r="L34" t="s">
         <v>158</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3411,19 +3424,19 @@
       <c r="E35">
         <v>8</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="5" t="s">
         <v>161</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="1">
         <v>-0.79</v>
       </c>
       <c r="K35" t="s">
@@ -3432,7 +3445,7 @@
       <c r="L35" t="s">
         <v>163</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3452,19 +3465,19 @@
       <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1">
         <v>-0.69</v>
       </c>
       <c r="K36" t="s">
@@ -3473,7 +3486,7 @@
       <c r="L36" t="s">
         <v>167</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3493,19 +3506,19 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="5" t="s">
         <v>170</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="1">
         <v>-0.63</v>
       </c>
       <c r="K37" t="s">
@@ -3514,7 +3527,7 @@
       <c r="L37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3534,19 +3547,19 @@
       <c r="E38">
         <v>6</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="1">
         <v>-0.69</v>
       </c>
       <c r="K38" t="s">
@@ -3555,7 +3568,7 @@
       <c r="L38" t="s">
         <v>167</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3575,19 +3588,19 @@
       <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39">
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="1">
         <v>-0.69</v>
       </c>
       <c r="K39" t="s">
@@ -3596,7 +3609,7 @@
       <c r="L39" t="s">
         <v>167</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3616,19 +3629,19 @@
       <c r="E40">
         <v>12</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="5" t="s">
         <v>177</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40">
+      <c r="I40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="1">
         <v>-0.53</v>
       </c>
       <c r="K40" t="s">
@@ -3637,7 +3650,7 @@
       <c r="L40" t="s">
         <v>179</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3657,19 +3670,19 @@
       <c r="E41">
         <v>10</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="5" t="s">
         <v>182</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="1">
         <v>-0.3</v>
       </c>
       <c r="K41" t="s">
@@ -3678,7 +3691,7 @@
       <c r="L41" t="s">
         <v>184</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3698,19 +3711,19 @@
       <c r="E42">
         <v>15</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="5" t="s">
         <v>187</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42">
+      <c r="I42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="1">
         <v>-1.55</v>
       </c>
       <c r="K42" t="s">
@@ -3719,7 +3732,7 @@
       <c r="L42" t="s">
         <v>189</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3736,19 +3749,19 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>0</v>
       </c>
       <c r="K43">
@@ -3771,19 +3784,19 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44">
+      <c r="H44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="1">
         <v>0</v>
       </c>
       <c r="K44">
@@ -3806,19 +3819,19 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>0</v>
       </c>
       <c r="K45">
@@ -3841,19 +3854,19 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>0</v>
       </c>
       <c r="K46">
@@ -3876,19 +3889,19 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>0</v>
       </c>
       <c r="K47">
@@ -3911,19 +3924,19 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48">
+      <c r="I48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="1">
         <v>0</v>
       </c>
       <c r="K48">
@@ -3946,19 +3959,19 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49">
+      <c r="I49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="1">
         <v>0</v>
       </c>
       <c r="K49">
@@ -3981,19 +3994,19 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I50" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50">
+      <c r="I50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="1">
         <v>0</v>
       </c>
       <c r="K50">
@@ -4016,19 +4029,19 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51">
+      <c r="I51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="1">
         <v>0</v>
       </c>
       <c r="K51">
@@ -4051,19 +4064,19 @@
       <c r="D52">
         <v>7</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52">
+      <c r="I52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="1">
         <v>0</v>
       </c>
       <c r="K52">
@@ -4086,19 +4099,19 @@
       <c r="D53">
         <v>4</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I53" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53">
+      <c r="I53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="1">
         <v>0</v>
       </c>
       <c r="K53">
@@ -4129,19 +4142,19 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55">
+      <c r="H55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="1">
         <v>0</v>
       </c>
       <c r="K55">
@@ -4164,13 +4177,13 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56">
+      <c r="I56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="1">
         <v>0</v>
       </c>
       <c r="K56">
@@ -4193,19 +4206,19 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57">
+      <c r="I57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="1">
         <v>0</v>
       </c>
       <c r="K57">
@@ -4228,19 +4241,19 @@
       <c r="D58">
         <v>8</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58">
+      <c r="H58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="1">
         <v>0</v>
       </c>
       <c r="K58">
@@ -4329,20 +4342,19 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65"/>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65">
+      <c r="H65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="1">
         <v>0</v>
       </c>
       <c r="K65">

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -1008,11 +1008,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1031,6 +1031,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1038,7 +1053,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,38 +1113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,8 +1130,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,65 +1167,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1183,7 +1183,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,175 +1357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,11 +1392,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,21 +1466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1439,41 +1474,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1482,10 +1482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,141 +1494,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1994,9 +1991,9 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2030,19 +2027,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -2051,7 +2048,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2063,7 +2060,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -2071,16 +2068,16 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="1">
@@ -2092,7 +2089,7 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2112,16 +2109,16 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="1">
@@ -2133,7 +2130,7 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2153,16 +2150,16 @@
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="1">
@@ -2174,7 +2171,7 @@
       <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2194,16 +2191,16 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1">
@@ -2215,7 +2212,7 @@
       <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2235,16 +2232,16 @@
       <c r="E6">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1">
@@ -2256,7 +2253,7 @@
       <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2276,16 +2273,16 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1">
@@ -2297,7 +2294,7 @@
       <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2317,16 +2314,16 @@
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="1">
@@ -2338,7 +2335,7 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2358,16 +2355,16 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="1">
@@ -2379,7 +2376,7 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2399,16 +2396,16 @@
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="1">
@@ -2420,7 +2417,7 @@
       <c r="L10" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2440,16 +2437,16 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="1">
@@ -2461,7 +2458,7 @@
       <c r="L11" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2481,16 +2478,16 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="1">
@@ -2502,7 +2499,7 @@
       <c r="L12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2522,16 +2519,16 @@
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="1">
@@ -2543,7 +2540,7 @@
       <c r="L13" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2563,16 +2560,16 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="1">
@@ -2584,7 +2581,7 @@
       <c r="L14" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2604,16 +2601,16 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>81</v>
       </c>
       <c r="J15" s="1">
@@ -2625,7 +2622,7 @@
       <c r="L15" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2645,16 +2642,16 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J16" s="1">
@@ -2666,7 +2663,7 @@
       <c r="L16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2686,16 +2683,16 @@
       <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="1">
@@ -2707,7 +2704,7 @@
       <c r="L17" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2727,16 +2724,16 @@
       <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="1">
@@ -2748,7 +2745,7 @@
       <c r="L18" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2768,16 +2765,16 @@
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J19" s="1">
@@ -2789,7 +2786,7 @@
       <c r="L19" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2809,16 +2806,16 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>99</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="1">
@@ -2830,7 +2827,7 @@
       <c r="L20" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2850,16 +2847,16 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="1">
@@ -2871,7 +2868,7 @@
       <c r="L21" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2891,16 +2888,16 @@
       <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="1">
@@ -2912,7 +2909,7 @@
       <c r="L22" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2932,16 +2929,16 @@
       <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="1">
@@ -2953,7 +2950,7 @@
       <c r="L23" t="s">
         <v>113</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2973,16 +2970,16 @@
       <c r="E24">
         <v>9</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>118</v>
       </c>
       <c r="J24" s="1">
@@ -2994,7 +2991,7 @@
       <c r="L24" t="s">
         <v>119</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3014,16 +3011,16 @@
       <c r="E25">
         <v>8</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="1">
@@ -3035,7 +3032,7 @@
       <c r="L25" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3055,16 +3052,16 @@
       <c r="E26">
         <v>9</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="1">
@@ -3076,7 +3073,7 @@
       <c r="L26" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3096,16 +3093,16 @@
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="1">
@@ -3117,7 +3114,7 @@
       <c r="L27" t="s">
         <v>128</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3137,16 +3134,16 @@
       <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="1">
@@ -3158,7 +3155,7 @@
       <c r="L28" t="s">
         <v>128</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3178,16 +3175,16 @@
       <c r="E29">
         <v>9</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="1">
@@ -3199,7 +3196,7 @@
       <c r="L29" t="s">
         <v>128</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3219,16 +3216,16 @@
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1">
@@ -3240,7 +3237,7 @@
       <c r="L30" t="s">
         <v>139</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3260,16 +3257,16 @@
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="1">
@@ -3281,7 +3278,7 @@
       <c r="L31" t="s">
         <v>144</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3301,16 +3298,16 @@
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>147</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="1">
@@ -3322,7 +3319,7 @@
       <c r="L32" t="s">
         <v>149</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3342,16 +3339,16 @@
       <c r="E33">
         <v>8</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>154</v>
       </c>
       <c r="J33" s="1">
@@ -3363,7 +3360,7 @@
       <c r="L33" t="s">
         <v>41</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3383,16 +3380,16 @@
       <c r="E34">
         <v>7</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J34" s="1">
@@ -3404,7 +3401,7 @@
       <c r="L34" t="s">
         <v>158</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3424,16 +3421,16 @@
       <c r="E35">
         <v>8</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J35" s="1">
@@ -3445,7 +3442,7 @@
       <c r="L35" t="s">
         <v>163</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3465,16 +3462,16 @@
       <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J36" s="1">
@@ -3486,7 +3483,7 @@
       <c r="L36" t="s">
         <v>167</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3506,16 +3503,16 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>170</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J37" s="1">
@@ -3527,7 +3524,7 @@
       <c r="L37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3547,16 +3544,16 @@
       <c r="E38">
         <v>6</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="1">
@@ -3568,7 +3565,7 @@
       <c r="L38" t="s">
         <v>167</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3588,16 +3585,16 @@
       <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J39" s="1">
@@ -3609,7 +3606,7 @@
       <c r="L39" t="s">
         <v>167</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3629,16 +3626,16 @@
       <c r="E40">
         <v>12</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>177</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J40" s="1">
@@ -3650,7 +3647,7 @@
       <c r="L40" t="s">
         <v>179</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3670,16 +3667,16 @@
       <c r="E41">
         <v>10</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>182</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J41" s="1">
@@ -3691,7 +3688,7 @@
       <c r="L41" t="s">
         <v>184</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3711,16 +3708,16 @@
       <c r="E42">
         <v>15</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J42" s="1">
@@ -3732,7 +3729,7 @@
       <c r="L42" t="s">
         <v>189</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3755,10 +3752,10 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="3" t="s">
         <v>192</v>
       </c>
       <c r="J43" s="1">
@@ -3790,10 +3787,10 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="H44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J44" s="1">
@@ -3825,10 +3822,10 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="1" t="s">
         <v>196</v>
       </c>
       <c r="J45" s="1">
@@ -3860,10 +3857,10 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="3" t="s">
         <v>198</v>
       </c>
       <c r="J46" s="1">
@@ -3895,10 +3892,10 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="3" t="s">
         <v>200</v>
       </c>
       <c r="J47" s="1">
@@ -3930,10 +3927,10 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J48" s="1">
@@ -3965,10 +3962,10 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J49" s="1">
@@ -4000,10 +3997,10 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J50" s="1">
@@ -4035,10 +4032,10 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J51" s="1">
@@ -4070,10 +4067,10 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J52" s="1">
@@ -4105,10 +4102,10 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J53" s="1">
@@ -4148,10 +4145,10 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J55" s="1">
@@ -4177,10 +4174,10 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J56" s="1">
@@ -4212,10 +4209,10 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J57" s="1">
@@ -4247,10 +4244,10 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="H58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J58" s="1">
@@ -4348,10 +4345,10 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="H65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J65" s="1">

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t>id</t>
   </si>
@@ -970,7 +970,7 @@
     <t>Effect_1005</t>
   </si>
   <si>
-    <t>0,0.9</t>
+    <t>0,-0.9</t>
   </si>
   <si>
     <t>Effect_1006</t>
@@ -982,19 +982,34 @@
     <t>Effect_1007</t>
   </si>
   <si>
+    <t>0,-0.7</t>
+  </si>
+  <si>
     <t>Effect_1008</t>
   </si>
   <si>
+    <t>0.09,-0.73</t>
+  </si>
+  <si>
     <t>Effect_1009</t>
   </si>
   <si>
+    <t>-1.23,-0.24</t>
+  </si>
+  <si>
     <t>Effect_1010</t>
   </si>
   <si>
     <t>Effect_1011</t>
   </si>
   <si>
+    <t>-1.08,-1.23</t>
+  </si>
+  <si>
     <t>Effect_1012</t>
+  </si>
+  <si>
+    <t>0,-1.25</t>
   </si>
   <si>
     <t>Effect_1013</t>
@@ -1008,13 +1023,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,23 +1038,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,6 +1082,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1059,8 +1105,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,6 +1159,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1082,93 +1174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,7 +1191,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,13 +1281,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,157 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,51 +1386,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1452,16 +1425,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,6 +1458,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1482,10 +1490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,150 +1502,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,9 +1996,9 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2002,13 +2007,13 @@
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2027,19 +2032,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -2048,7 +2053,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2060,7 +2065,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -2068,19 +2073,19 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>-0.69</v>
       </c>
       <c r="K2" t="s">
@@ -2089,7 +2094,7 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2109,19 +2114,19 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
         <v>-0.53</v>
       </c>
       <c r="K3" t="s">
@@ -2130,7 +2135,7 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2150,19 +2155,19 @@
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>-0.66</v>
       </c>
       <c r="K4" t="s">
@@ -2171,7 +2176,7 @@
       <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2191,19 +2196,19 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
         <v>-0.45</v>
       </c>
       <c r="K5" t="s">
@@ -2212,7 +2217,7 @@
       <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2232,19 +2237,19 @@
       <c r="E6">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6">
         <v>-0.69</v>
       </c>
       <c r="K6" t="s">
@@ -2253,7 +2258,7 @@
       <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2273,19 +2278,19 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
         <v>-0.78</v>
       </c>
       <c r="K7" t="s">
@@ -2294,7 +2299,7 @@
       <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2314,19 +2319,19 @@
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
         <v>-0.54</v>
       </c>
       <c r="K8" t="s">
@@ -2335,7 +2340,7 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2355,19 +2360,19 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9">
         <v>-0.56</v>
       </c>
       <c r="K9" t="s">
@@ -2376,7 +2381,7 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2396,19 +2401,19 @@
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10">
         <v>-0.66</v>
       </c>
       <c r="K10" t="s">
@@ -2417,7 +2422,7 @@
       <c r="L10" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2437,19 +2442,19 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11">
         <v>-0.62</v>
       </c>
       <c r="K11" t="s">
@@ -2458,7 +2463,7 @@
       <c r="L11" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2478,19 +2483,19 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>-0.64</v>
       </c>
       <c r="K12" t="s">
@@ -2499,7 +2504,7 @@
       <c r="L12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2519,19 +2524,19 @@
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
         <v>-0.64</v>
       </c>
       <c r="K13" t="s">
@@ -2540,7 +2545,7 @@
       <c r="L13" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2560,19 +2565,19 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14">
         <v>-0.64</v>
       </c>
       <c r="K14" t="s">
@@ -2581,7 +2586,7 @@
       <c r="L14" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2601,19 +2606,19 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>-0.66</v>
       </c>
       <c r="K15" t="s">
@@ -2622,7 +2627,7 @@
       <c r="L15" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2642,19 +2647,19 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>-0.66</v>
       </c>
       <c r="K16" t="s">
@@ -2663,7 +2668,7 @@
       <c r="L16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2683,19 +2688,19 @@
       <c r="E17">
         <v>8</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17">
         <v>-0.64</v>
       </c>
       <c r="K17" t="s">
@@ -2704,7 +2709,7 @@
       <c r="L17" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2724,19 +2729,19 @@
       <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
@@ -2745,7 +2750,7 @@
       <c r="L18" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2765,19 +2770,19 @@
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>-0.54</v>
       </c>
       <c r="K19" t="s">
@@ -2786,7 +2791,7 @@
       <c r="L19" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2806,19 +2811,19 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20">
         <v>-0.71</v>
       </c>
       <c r="K20" t="s">
@@ -2827,7 +2832,7 @@
       <c r="L20" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2847,19 +2852,19 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21">
         <v>-0.66</v>
       </c>
       <c r="K21" t="s">
@@ -2868,7 +2873,7 @@
       <c r="L21" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2888,19 +2893,19 @@
       <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22">
         <v>-0.37</v>
       </c>
       <c r="K22" t="s">
@@ -2909,7 +2914,7 @@
       <c r="L22" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2929,19 +2934,19 @@
       <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23">
         <v>-0.65</v>
       </c>
       <c r="K23" t="s">
@@ -2950,7 +2955,7 @@
       <c r="L23" t="s">
         <v>113</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2970,19 +2975,19 @@
       <c r="E24">
         <v>9</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>-0.91</v>
       </c>
       <c r="K24" t="s">
@@ -2991,7 +2996,7 @@
       <c r="L24" t="s">
         <v>119</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3011,19 +3016,19 @@
       <c r="E25">
         <v>8</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25">
         <v>-0.88</v>
       </c>
       <c r="K25" t="s">
@@ -3032,7 +3037,7 @@
       <c r="L25" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3052,19 +3057,19 @@
       <c r="E26">
         <v>9</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26">
         <v>-0.67</v>
       </c>
       <c r="K26" t="s">
@@ -3073,7 +3078,7 @@
       <c r="L26" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3093,19 +3098,19 @@
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27">
         <v>-0.67</v>
       </c>
       <c r="K27" t="s">
@@ -3114,7 +3119,7 @@
       <c r="L27" t="s">
         <v>128</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3134,19 +3139,19 @@
       <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28">
         <v>-0.67</v>
       </c>
       <c r="K28" t="s">
@@ -3155,7 +3160,7 @@
       <c r="L28" t="s">
         <v>128</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3175,19 +3180,19 @@
       <c r="E29">
         <v>9</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29">
         <v>-0.67</v>
       </c>
       <c r="K29" t="s">
@@ -3196,7 +3201,7 @@
       <c r="L29" t="s">
         <v>128</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3216,19 +3221,19 @@
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>137</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30">
         <v>-0.67</v>
       </c>
       <c r="K30" t="s">
@@ -3237,7 +3242,7 @@
       <c r="L30" t="s">
         <v>139</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3257,19 +3262,19 @@
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>142</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31">
         <v>-0.63</v>
       </c>
       <c r="K31" t="s">
@@ -3278,7 +3283,7 @@
       <c r="L31" t="s">
         <v>144</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3298,19 +3303,19 @@
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>147</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32">
         <v>-0.67</v>
       </c>
       <c r="K32" t="s">
@@ -3319,7 +3324,7 @@
       <c r="L32" t="s">
         <v>149</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3339,19 +3344,19 @@
       <c r="E33">
         <v>8</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>152</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>-0.72</v>
       </c>
       <c r="K33" t="s">
@@ -3360,7 +3365,7 @@
       <c r="L33" t="s">
         <v>41</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3380,19 +3385,19 @@
       <c r="E34">
         <v>7</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34">
         <v>-0.86</v>
       </c>
       <c r="K34" t="s">
@@ -3401,7 +3406,7 @@
       <c r="L34" t="s">
         <v>158</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3421,19 +3426,19 @@
       <c r="E35">
         <v>8</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35">
         <v>-0.79</v>
       </c>
       <c r="K35" t="s">
@@ -3442,7 +3447,7 @@
       <c r="L35" t="s">
         <v>163</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3462,19 +3467,19 @@
       <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36">
         <v>-0.69</v>
       </c>
       <c r="K36" t="s">
@@ -3483,7 +3488,7 @@
       <c r="L36" t="s">
         <v>167</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3503,19 +3508,19 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>170</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37">
         <v>-0.63</v>
       </c>
       <c r="K37" t="s">
@@ -3524,7 +3529,7 @@
       <c r="L37" t="s">
         <v>172</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3544,19 +3549,19 @@
       <c r="E38">
         <v>6</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38">
         <v>-0.69</v>
       </c>
       <c r="K38" t="s">
@@ -3565,7 +3570,7 @@
       <c r="L38" t="s">
         <v>167</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3585,19 +3590,19 @@
       <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39">
         <v>-0.69</v>
       </c>
       <c r="K39" t="s">
@@ -3606,7 +3611,7 @@
       <c r="L39" t="s">
         <v>167</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3626,19 +3631,19 @@
       <c r="E40">
         <v>12</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>177</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40">
         <v>-0.53</v>
       </c>
       <c r="K40" t="s">
@@ -3647,7 +3652,7 @@
       <c r="L40" t="s">
         <v>179</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3667,19 +3672,19 @@
       <c r="E41">
         <v>10</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41">
         <v>-0.3</v>
       </c>
       <c r="K41" t="s">
@@ -3688,7 +3693,7 @@
       <c r="L41" t="s">
         <v>184</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3708,19 +3713,19 @@
       <c r="E42">
         <v>15</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42">
         <v>-1.55</v>
       </c>
       <c r="K42" t="s">
@@ -3729,7 +3734,7 @@
       <c r="L42" t="s">
         <v>189</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3746,19 +3751,19 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
@@ -3781,19 +3786,19 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
@@ -3816,19 +3821,19 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
@@ -3851,19 +3856,19 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
@@ -3886,19 +3891,19 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
@@ -3921,19 +3926,19 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="I48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
@@ -3956,19 +3961,19 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
@@ -3991,19 +3996,19 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="1">
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
@@ -4026,19 +4031,19 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" t="s">
         <v>208</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="1">
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
@@ -4061,19 +4066,19 @@
       <c r="D52">
         <v>7</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" t="s">
         <v>210</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="1">
+      <c r="I52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
@@ -4096,19 +4101,19 @@
       <c r="D53">
         <v>4</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" t="s">
         <v>212</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="1">
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
@@ -4118,7 +4123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>35003</v>
       </c>
@@ -4127,6 +4132,27 @@
       </c>
       <c r="C54">
         <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4139,19 +4165,19 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
@@ -4174,13 +4200,13 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>216</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="1">
+      <c r="I56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
@@ -4203,19 +4229,19 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" t="s">
         <v>218</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="1">
+      <c r="I57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
@@ -4236,94 +4262,232 @@
         <v>1</v>
       </c>
       <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>8</v>
       </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>35008</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>35009</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>35010</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>216</v>
+      </c>
+      <c r="I61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>35011</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>35012</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:12">
       <c r="A64">
         <v>35013</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C64">
         <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4331,7 +4495,7 @@
         <v>40001</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4339,19 +4503,19 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="1">
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -952,13 +952,13 @@
     <t>Effect_1001</t>
   </si>
   <si>
-    <t>0,0.5</t>
+    <t>0,-0.8</t>
   </si>
   <si>
     <t>Effect_1002</t>
   </si>
   <si>
-    <t>0,0.27</t>
+    <t>0,-0.29</t>
   </si>
   <si>
     <t>Effect_1003</t>
@@ -1038,9 +1038,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,96 +1115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,24 +1130,53 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,25 +1191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,31 +1203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,97 +1233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,7 +1251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,41 +1385,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,17 +1411,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1459,11 +1418,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1482,6 +1462,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1490,10 +1490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,133 +1502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1996,9 +1996,9 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
     <t>-0.15,0.6</t>
   </si>
   <si>
-    <t>-0.12,-0,3</t>
+    <t>-0.12,-0.3</t>
   </si>
   <si>
     <t>0.32,-0.28</t>
@@ -1024,8 +1024,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1038,8 +1038,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,52 +1048,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,7 +1070,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,6 +1086,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,6 +1114,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1152,17 +1130,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1174,9 +1160,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,31 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1221,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,73 +1251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,13 +1275,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,19 +1359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,11 +1385,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,60 +1472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1490,10 +1490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,133 +1502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1996,9 +1996,9 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
   <si>
     <t>id</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>target_border</t>
+  </si>
+  <si>
+    <t>animation_speed</t>
   </si>
   <si>
     <t>Role_001</t>
@@ -1023,11 +1026,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1038,9 +1041,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,6 +1050,81 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,84 +1146,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,22 +1170,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,19 +1194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1224,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,31 +1326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,13 +1344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,7 +1356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,79 +1374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,6 +1385,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1415,25 +1466,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1447,41 +1485,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1490,10 +1493,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,141 +1505,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1993,12 +1999,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2014,9 +2020,10 @@
     <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
     <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2056,13 +2063,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2073,37 +2083,40 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>-0.69</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>20001</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2114,37 +2127,40 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>-0.53</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>20002</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2156,36 +2172,39 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="J4">
         <v>-0.66</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>20003</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2196,37 +2215,40 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>-0.45</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>20004</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2237,37 +2259,40 @@
       <c r="E6">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>40</v>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>-0.69</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>20005</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2278,37 +2303,40 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>45</v>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>-0.78</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>20006</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2319,37 +2347,40 @@
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
+      <c r="F8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
+      <c r="H8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8">
         <v>-0.54</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>20007</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2360,37 +2391,40 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>53</v>
+      <c r="H9" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9">
         <v>-0.56</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>20008</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2401,37 +2435,40 @@
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
+      <c r="F10" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
+      <c r="H10" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10">
         <v>-0.66</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>59</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>20009</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2442,37 +2479,40 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>60</v>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>61</v>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11">
         <v>-0.62</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>64</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>20010</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2483,37 +2523,40 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>65</v>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J12">
         <v>-0.64</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>69</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>20011</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2524,37 +2567,40 @@
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>70</v>
+      <c r="F13" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>71</v>
+      <c r="H13" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13">
         <v>-0.64</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>73</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>20012</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2565,37 +2611,40 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>74</v>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>75</v>
+      <c r="H14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14">
         <v>-0.64</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>78</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>20013</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2607,36 +2656,39 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="J15">
         <v>-0.66</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>83</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>20014</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2648,36 +2700,39 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="J16">
         <v>-0.66</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>86</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>20015</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2689,36 +2744,39 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>-0.64</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>20016</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2730,36 +2788,39 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>93</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>20017</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2771,36 +2832,39 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J19">
         <v>-0.54</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>98</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>20018</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2811,37 +2875,40 @@
       <c r="E20">
         <v>7</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>99</v>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>100</v>
+      <c r="H20" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J20">
         <v>-0.71</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>102</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>20019</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2852,37 +2919,40 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>103</v>
+      <c r="F21" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>66</v>
+      <c r="H21" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21">
         <v>-0.66</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>105</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>20020</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2893,37 +2963,40 @@
       <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>106</v>
+      <c r="F22" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>107</v>
+      <c r="H22" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22">
         <v>-0.37</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>110</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>20021</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2934,37 +3007,40 @@
       <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>111</v>
+      <c r="F23" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>112</v>
+      <c r="H23" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23">
         <v>-0.65</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>115</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>20022</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2975,37 +3051,40 @@
       <c r="E24">
         <v>9</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>116</v>
+      <c r="F24" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>118</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="J24">
         <v>-0.91</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>121</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>20023</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3016,37 +3095,40 @@
       <c r="E25">
         <v>8</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>122</v>
+      <c r="F25" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>123</v>
+      <c r="H25" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J25">
         <v>-0.88</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>125</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>20024</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3057,37 +3139,40 @@
       <c r="E26">
         <v>9</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>126</v>
+      <c r="F26" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>127</v>
+      <c r="H26" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J26">
         <v>-0.67</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>20025</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3098,37 +3183,40 @@
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>131</v>
+      <c r="F27" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>132</v>
+      <c r="H27" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J27">
         <v>-0.67</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>20026</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3139,37 +3227,40 @@
       <c r="E28">
         <v>9</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>131</v>
+      <c r="F28" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>132</v>
+      <c r="H28" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J28">
         <v>-0.67</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>20027</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3180,37 +3271,40 @@
       <c r="E29">
         <v>9</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>131</v>
+      <c r="F29" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>132</v>
+      <c r="H29" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J29">
         <v>-0.67</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>20028</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3221,37 +3315,40 @@
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>137</v>
+      <c r="F30" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>138</v>
+      <c r="H30" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J30">
         <v>-0.67</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>141</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>20029</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3262,37 +3359,40 @@
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>142</v>
+      <c r="F31" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>143</v>
+      <c r="H31" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J31">
         <v>-0.63</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>146</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>20030</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3303,37 +3403,40 @@
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>147</v>
+      <c r="F32" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>148</v>
+      <c r="H32" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J32">
         <v>-0.67</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>151</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>20031</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3344,37 +3447,40 @@
       <c r="E33">
         <v>8</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>152</v>
+      <c r="F33" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="3" t="s">
         <v>154</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="J33">
         <v>-0.72</v>
       </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>156</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>20032</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3386,36 +3492,39 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J34">
         <v>-0.86</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>160</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>20033</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3426,37 +3535,40 @@
       <c r="E35">
         <v>8</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>161</v>
+      <c r="F35" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>162</v>
+      <c r="H35" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J35">
         <v>-0.79</v>
       </c>
       <c r="K35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>165</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>20034</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3467,37 +3579,40 @@
       <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>103</v>
+      <c r="F36" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>166</v>
+      <c r="H36" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J36">
         <v>-0.69</v>
       </c>
       <c r="K36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>169</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>20035</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3508,37 +3623,40 @@
       <c r="E37">
         <v>5</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>170</v>
+      <c r="F37" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>171</v>
+      <c r="H37" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J37">
         <v>-0.63</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>174</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>20036</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3549,37 +3667,40 @@
       <c r="E38">
         <v>6</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>103</v>
+      <c r="F38" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>166</v>
+      <c r="H38" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J38">
         <v>-0.69</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>169</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>20037</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3590,37 +3711,40 @@
       <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>103</v>
+      <c r="F39" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>166</v>
+      <c r="H39" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J39">
         <v>-0.69</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>169</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>20038</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3631,37 +3755,40 @@
       <c r="E40">
         <v>12</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>177</v>
+      <c r="F40" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>178</v>
+      <c r="H40" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J40">
         <v>-0.53</v>
       </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>181</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>20039</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3672,37 +3799,40 @@
       <c r="E41">
         <v>10</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>182</v>
+      <c r="F41" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>183</v>
+      <c r="H41" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J41">
         <v>-0.3</v>
       </c>
       <c r="K41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>20040</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3713,37 +3843,40 @@
       <c r="E42">
         <v>15</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>187</v>
+      <c r="F42" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>188</v>
+      <c r="H42" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J42">
         <v>-1.55</v>
       </c>
       <c r="K42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>191</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>30001</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3757,11 +3890,11 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>192</v>
+      <c r="H43" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3772,13 +3905,16 @@
       <c r="L43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>30002</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3793,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3807,13 +3943,16 @@
       <c r="L44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>30003</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3827,11 +3966,11 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>195</v>
+      <c r="H45" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="I45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3842,13 +3981,16 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>30004</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3862,11 +4004,11 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>198</v>
+      <c r="H46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3877,13 +4019,16 @@
       <c r="L46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>30005</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3897,11 +4042,11 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>200</v>
+      <c r="H47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3912,13 +4057,16 @@
       <c r="L47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>30006</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3933,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3947,13 +4095,16 @@
       <c r="L48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>30007</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3967,11 +4118,11 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>204</v>
+      <c r="H49" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3982,13 +4133,16 @@
       <c r="L49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>30008</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4002,11 +4156,11 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>206</v>
+      <c r="H50" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -4017,13 +4171,16 @@
       <c r="L50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>30009</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4038,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -4052,13 +4209,16 @@
       <c r="L51">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>35001</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4073,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4087,13 +4247,16 @@
       <c r="L52">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>35002</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4108,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4122,13 +4285,16 @@
       <c r="L53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>35003</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4140,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4154,13 +4320,16 @@
       <c r="L54">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>35004</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4172,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4186,13 +4355,16 @@
       <c r="L55">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>35005</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4201,10 +4373,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4215,13 +4387,16 @@
       <c r="L56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>35006</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4236,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4250,13 +4425,16 @@
       <c r="L57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>35007</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4271,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4285,13 +4463,16 @@
       <c r="L58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>35008</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4306,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4320,13 +4501,16 @@
       <c r="L59">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>35009</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4340,11 +4524,11 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>224</v>
+      <c r="H60" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4355,13 +4539,16 @@
       <c r="L60">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>35010</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4376,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4390,13 +4577,16 @@
       <c r="L61">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>35011</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4410,11 +4600,11 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>227</v>
+      <c r="H62" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -4425,13 +4615,16 @@
       <c r="L62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>35012</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4443,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -4457,13 +4650,16 @@
       <c r="L63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:12">
+      <c r="N63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>35013</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4475,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4489,13 +4685,16 @@
       <c r="L64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>40001</v>
       </c>
       <c r="B65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4510,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4523,6 +4722,9 @@
       </c>
       <c r="L65">
         <v>8</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-资源配置表.xlsx
+++ b/other/配置表/z-资源配置表.xlsx
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>id</t>
   </si>
@@ -1019,6 +1019,12 @@
   </si>
   <si>
     <t>Effect_fire</t>
+  </si>
+  <si>
+    <t>Effect_lvup</t>
+  </si>
+  <si>
+    <t>0,-0.57</t>
   </si>
 </sst>
 </file>
@@ -1026,11 +1032,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1038,6 +1044,43 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1056,7 +1099,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,31 +1159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,72 +1183,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1194,13 +1200,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,61 +1242,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,25 +1290,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,67 +1380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,6 +1391,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1420,9 +1450,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,22 +1463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,20 +1485,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,10 +1499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1505,133 +1511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1999,12 +2005,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N65"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="$A66:$XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4724,6 +4730,44 @@
         <v>8</v>
       </c>
       <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>40002</v>
+      </c>
+      <c r="B66" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I66" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>13</v>
+      </c>
+      <c r="N66">
         <v>1</v>
       </c>
     </row>
